--- a/exports/班级管理-portal-teacher-v2-classmanage.xlsx
+++ b/exports/班级管理-portal-teacher-v2-classmanage.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,180 +433,180 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>txt_1000053</v>
+        <v>txt_1000052</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
+        <v>请选择左���老师</v>
       </c>
       <c r="C4" t="str">
-        <v>Please enter the Chinese character, letter, or number</v>
+        <v>Select teacher on the left</v>
       </c>
       <c r="D4" t="str">
-        <v>請輸入漢字、字母或數位</v>
+        <v>請選擇左邊老師</v>
       </c>
       <c r="E4" t="str">
-        <v>أدخل المربعات الصينية أو الحرف أو العدد</v>
+        <v>اختر الأستاذ على اليسار</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>txt_1000054</v>
+        <v>txt_1000053</v>
       </c>
       <c r="B5" t="str">
-        <v>请输入1-100个字符</v>
+        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
       </c>
       <c r="C5" t="str">
-        <v>Enter character from 1 to 100</v>
+        <v>Please enter the Chinese character, letter, or number</v>
       </c>
       <c r="D5" t="str">
-        <v>請輸入1-100個字元</v>
+        <v>請輸入漢字、字母或數位</v>
       </c>
       <c r="E5" t="str">
-        <v>أدخل 100-1 حرف</v>
+        <v>أدخل المربعات الصينية أو الحرف أو العدد</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>txt_1000083</v>
+        <v>txt_1000054</v>
       </c>
       <c r="B6" t="str">
-        <v>输入姓名/昵称/帐户</v>
+        <v>请输入1-100个字符</v>
       </c>
       <c r="C6" t="str">
-        <v>Enter name/nickname/account</v>
+        <v>Enter character from 1 to 100</v>
       </c>
       <c r="D6" t="str">
-        <v>輸入姓名/暱稱/帳戶</v>
+        <v>請輸入1-100個字元</v>
       </c>
       <c r="E6" t="str">
-        <v>تنازل رقم الحساب</v>
+        <v>أدخل 100-1 حرف</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>txt_1000103</v>
+        <v>txt_1000083</v>
       </c>
       <c r="B7" t="str">
         <v>输入姓名/昵称/帐户</v>
       </c>
       <c r="C7" t="str">
-        <v>Enter an account to search the student</v>
+        <v>Enter name/nickname/account</v>
       </c>
       <c r="D7" t="str">
-        <v>输入姓名/昵称/帐户</v>
+        <v>輸入姓名/暱稱/帳戶</v>
       </c>
       <c r="E7" t="str">
-        <v>أدخل رقم الحساب لبحث الطالب</v>
+        <v>تنازل رقم الحساب</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>txt_1000107</v>
+        <v>txt_1000103</v>
       </c>
       <c r="B8" t="str">
-        <v>手动编辑</v>
+        <v>输入姓名/昵称/帐户</v>
       </c>
       <c r="C8" t="str">
-        <v>Single add</v>
+        <v>Enter an account to search the student</v>
       </c>
       <c r="D8" t="str">
-        <v>單個添加</v>
+        <v>输入姓名/昵称/帐户</v>
       </c>
       <c r="E8" t="str">
-        <v>إضافة وحدة</v>
+        <v>أدخل رقم الحساب لبحث الطالب</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>txt_1000121</v>
+        <v>txt_1000107</v>
       </c>
       <c r="B9" t="str">
-        <v>学生帐号</v>
+        <v>手动编辑</v>
       </c>
       <c r="C9" t="str">
-        <v>Student account</v>
+        <v>Single add</v>
       </c>
       <c r="D9" t="str">
-        <v>學生帳號</v>
+        <v>單個添加</v>
       </c>
       <c r="E9" t="str">
-        <v>رقم حساب الطالب</v>
+        <v>إضافة وحدة</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>txt_1000157</v>
+        <v>txt_1000121</v>
       </c>
       <c r="B10" t="str">
-        <v>您还未加入任何班级，试试查看我创建的班级或创建班级</v>
+        <v>学生帐号</v>
       </c>
       <c r="C10" t="str">
-        <v>You have not added any classes yet</v>
+        <v>Student account</v>
       </c>
       <c r="D10" t="str">
-        <v>您還未加入任何班級</v>
+        <v>學生帳號</v>
       </c>
       <c r="E10" t="str">
-        <v>لم تشارك إلى أي صف</v>
+        <v>رقم حساب الطالب</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>txt_1000239</v>
+        <v>txt_1000157</v>
       </c>
       <c r="B11" t="str">
-        <v>(学生可用该账号登录，默认密码Abc123456)</v>
+        <v>您还未加入任何班级，试试查看我创建的班级或创建班级</v>
       </c>
       <c r="C11" t="str">
-        <v>(Students can use this account to log in, and the default password is Abc123456)</v>
+        <v>You have not added any classes yet</v>
       </c>
       <c r="D11" t="str">
-        <v>(學生可用該帳號登入，默認密碼Abc123456)</v>
+        <v>您還未加入任何班級</v>
       </c>
       <c r="E11" t="str">
-        <v>(Abcيمكن للطلاب استخدام هذا الحساب لتسجيل الدخول إلى  ، كلمة المرور الافتراضية هي 123456)</v>
+        <v>لم تشارك إلى أي صف</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>txt_1000257</v>
+        <v>txt_1000239</v>
       </c>
       <c r="B12" t="str">
-        <v>images/demo/thirdStudent.xlsx</v>
+        <v>(学生可用该账号登录，默认密码Abc123456)</v>
       </c>
       <c r="C12" t="str">
-        <v>images/demo/thirdStudent(en).xls</v>
+        <v>(Students can use this account to log in, and the default password is Abc123456)</v>
       </c>
       <c r="D12" t="str">
-        <v>images/demo/thirdStudent.xlsx</v>
+        <v>(學生可用該帳號登入，默認密碼Abc123456)</v>
       </c>
       <c r="E12" t="str">
-        <v>images/demo/thirdStudent.xls</v>
+        <v>(يمكن للطلاب استخدام هذا الحساب لتسجيل الدخول إلى ، كلمة المرور الافتراضية هي Abc123456)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>txt_1000263</v>
+        <v>txt_1000257</v>
       </c>
       <c r="B13" t="str">
-        <v>清除后将把该分组方案下所有小组解散且数据不可恢复</v>
+        <v>images/demo/thirdStudent.xlsx</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>images/demo/thirdStudent(en).xls</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>images/demo/thirdStudent.xlsx</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>images/demo/thirdStudent.xls</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>txt_1000264</v>
+        <v>txt_1000263</v>
       </c>
       <c r="B14" t="str">
-        <v>学生账号</v>
+        <v>清除后将把该分组方案下所有小组解散且数据不可恢复</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -620,44 +620,44 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>accountTips</v>
+        <v>txt_1000264</v>
       </c>
       <c r="B15" t="str">
-        <v>学生可以使用自动生成的账号登录作业和课堂，密码默认Abc123456</v>
+        <v>学生账号</v>
       </c>
       <c r="C15" t="str">
-        <v>Students can use the automatically generated account to log in to assignments and classes, and the default password is Abc123456</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>學生可以使用自動生成的賬號登錄作業和課堂，默認密碼Abc123456</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>يمكن للطلاب استخدام الحساب تلقائيا تسجيل الدخول إلى العمليات والفصول الدراسية ، كلمة السر الافتراضية abc123456</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>third_account_modal_title</v>
+        <v>accountTips</v>
       </c>
       <c r="B16" t="str">
-        <v>绑定第三方账号班级数据</v>
+        <v>学生可以使用自动生成的账号登录作业和课堂，密码默认Abc123456</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Students can use the automatically generated account to log in to assignments and classes, and the default password is Abc123456</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>學生可以使用自動生成的賬號登錄作業和課堂，默認密碼Abc123456</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>يمكن للطلاب استخدام الحساب تلقائيا تسجيل الدخول إلى العمليات والفصول الدراسية ، كلمة السر الافتراضية abc123456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>classes_empty_tips</v>
+        <v>third_account_modal_title</v>
       </c>
       <c r="B17" t="str">
-        <v>创建属于你的第一个班级，创建完成后，即可使用101教育PPT的特色工具</v>
+        <v>绑定第三方账号班级数据</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -671,24 +671,41 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>classes_empty_tips</v>
+      </c>
+      <c r="B18" t="str">
+        <v>创建属于你的第一个班级，创建完成后，即可使用101教育PPT的特色工具</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
         <v>PPT101_CLASS_STUDENT_INFO_CONFLICT</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B19" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C19" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <v>学生信息冲突</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/exports/班级管理-portal-teacher-v2-classmanage.xlsx
+++ b/exports/班级管理-portal-teacher-v2-classmanage.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,313 +399,4614 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>txt_1000016</v>
+        <v>txt_1000001</v>
       </c>
       <c r="B2" t="str">
-        <v>班级名称不能多于50个字符</v>
+        <v>不限</v>
       </c>
       <c r="C2" t="str">
-        <v>Class name should be less than 50 characters</v>
+        <v>No limit</v>
       </c>
       <c r="D2" t="str">
-        <v>班級名稱不能多於50個字元</v>
+        <v>不限</v>
       </c>
       <c r="E2" t="str">
-        <v>يتجاوز اسم الصف على 50 رمز</v>
+        <v>دون قيود</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>txt_1000031</v>
+        <v>txt_1000002</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
+        <v>工程师正在努力开发中</v>
       </c>
       <c r="C3" t="str">
-        <v>Please enter the Chinese character, letter, number</v>
+        <v>Engineers are working on it</v>
       </c>
       <c r="D3" t="str">
-        <v>請輸入漢字、字母、數位</v>
+        <v>工程師正在努力開發中</v>
       </c>
       <c r="E3" t="str">
-        <v>أدخل المربع الصيني، الحرف، العدد</v>
+        <v>يسعي المهندس إلى التطوير</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>txt_1000052</v>
+        <v>txt_1000003</v>
       </c>
       <c r="B4" t="str">
-        <v>请选择左���老师</v>
+        <v>请选择jpg、png图片</v>
       </c>
       <c r="C4" t="str">
-        <v>Select teacher on the left</v>
+        <v>Select image of jpg or png</v>
       </c>
       <c r="D4" t="str">
-        <v>請選擇左邊老師</v>
+        <v>請選擇jpg、png圖片</v>
       </c>
       <c r="E4" t="str">
-        <v>اختر الأستاذ على اليسار</v>
+        <v>اختر شكل jpg، png</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>txt_1000053</v>
+        <v>txt_1000004</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
+        <v>从本地选择图片</v>
       </c>
       <c r="C5" t="str">
-        <v>Please enter the Chinese character, letter, or number</v>
+        <v>Select local image</v>
       </c>
       <c r="D5" t="str">
-        <v>請輸入漢字、字母或數位</v>
+        <v>從本地選擇圖片</v>
       </c>
       <c r="E5" t="str">
-        <v>أدخل المربعات الصينية أو الحرف أو العدد</v>
+        <v>يخار الشكل محليا</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>txt_1000054</v>
+        <v>txt_1000005</v>
       </c>
       <c r="B6" t="str">
-        <v>请输入1-100个字符</v>
+        <v>请选择文件的大小在2M以内</v>
       </c>
       <c r="C6" t="str">
-        <v>Enter character from 1 to 100</v>
+        <v>Select file within 2M</v>
       </c>
       <c r="D6" t="str">
-        <v>請輸入1-100個字元</v>
+        <v>請選擇檔的大小在2M以內</v>
       </c>
       <c r="E6" t="str">
-        <v>أدخل 100-1 حرف</v>
+        <v>اختر الملف داخل 2M</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>txt_1000083</v>
+        <v>txt_1000006</v>
       </c>
       <c r="B7" t="str">
-        <v>输入姓名/昵称/帐户</v>
+        <v>请选择封面</v>
       </c>
       <c r="C7" t="str">
-        <v>Enter name/nickname/account</v>
+        <v>Select your cover</v>
       </c>
       <c r="D7" t="str">
-        <v>輸入姓名/暱稱/帳戶</v>
+        <v>請選擇封面</v>
       </c>
       <c r="E7" t="str">
-        <v>تنازل رقم الحساب</v>
+        <v>اختر صفحة الغلاف</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>txt_1000103</v>
+        <v>txt_1000007</v>
       </c>
       <c r="B8" t="str">
-        <v>输入姓名/昵称/帐户</v>
+        <v>请选择导入文件</v>
       </c>
       <c r="C8" t="str">
-        <v>Enter an account to search the student</v>
+        <v>Select your file to import</v>
       </c>
       <c r="D8" t="str">
-        <v>输入姓名/昵称/帐户</v>
+        <v>請選擇導入檔</v>
       </c>
       <c r="E8" t="str">
-        <v>أدخل رقم الحساب لبحث الطالب</v>
+        <v>اختر إدخال الملف</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>txt_1000107</v>
+        <v>txt_1000008</v>
       </c>
       <c r="B9" t="str">
-        <v>手动编辑</v>
+        <v>请选择正确的模板</v>
       </c>
       <c r="C9" t="str">
-        <v>Single add</v>
+        <v>Select the correct template</v>
       </c>
       <c r="D9" t="str">
-        <v>單個添加</v>
+        <v>請選擇正確的範本</v>
       </c>
       <c r="E9" t="str">
-        <v>إضافة وحدة</v>
+        <v>اختر النموذج الصحيح</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>txt_1000121</v>
+        <v>txt_1000009</v>
       </c>
       <c r="B10" t="str">
-        <v>学生帐号</v>
+        <v>座位号必须是整数</v>
       </c>
       <c r="C10" t="str">
-        <v>Student account</v>
+        <v>The seat number should be integer</v>
       </c>
       <c r="D10" t="str">
-        <v>學生帳號</v>
+        <v>座位號必須是整數</v>
       </c>
       <c r="E10" t="str">
-        <v>رقم حساب الطالب</v>
+        <v>على أن يكون رقم المقعد عددا كاملا</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>txt_1000157</v>
+        <v>txt_1000010</v>
       </c>
       <c r="B11" t="str">
-        <v>您还未加入任何班级，试试查看我创建的班级或创建班级</v>
+        <v>获取session错误</v>
       </c>
       <c r="C11" t="str">
-        <v>You have not added any classes yet</v>
+        <v>Obtain session error</v>
       </c>
       <c r="D11" t="str">
-        <v>您還未加入任何班級</v>
+        <v>獲取session錯誤</v>
       </c>
       <c r="E11" t="str">
-        <v>لم تشارك إلى أي صف</v>
+        <v>خطأ الحصول على session</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>txt_1000239</v>
+        <v>txt_1000011</v>
       </c>
       <c r="B12" t="str">
-        <v>(学生可用该账号登录，默认密码Abc123456)</v>
+        <v>网络异常，请重试!</v>
       </c>
       <c r="C12" t="str">
-        <v>(Students can use this account to log in, and the default password is Abc123456)</v>
+        <v>Network error, please try again</v>
       </c>
       <c r="D12" t="str">
-        <v>(學生可用該帳號登入，默認密碼Abc123456)</v>
+        <v>網路異常，請重試!</v>
       </c>
       <c r="E12" t="str">
-        <v>(يمكن للطلاب استخدام هذا الحساب لتسجيل الدخول إلى ، كلمة المرور الافتراضية هي Abc123456)</v>
+        <v>الحالة الشاذة في الشبكة، أعد المحاولة!</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>txt_1000257</v>
+        <v>txt_1000012</v>
       </c>
       <c r="B13" t="str">
-        <v>images/demo/thirdStudent.xlsx</v>
+        <v>仅支持上传{fileType}格式图片，请您重新选择！</v>
       </c>
       <c r="C13" t="str">
-        <v>images/demo/thirdStudent(en).xls</v>
+        <v>Only support image of {fileType} format, please select again</v>
       </c>
       <c r="D13" t="str">
-        <v>images/demo/thirdStudent.xlsx</v>
+        <v>僅支援上傳{fileType}格式圖片，請您重新選擇！</v>
       </c>
       <c r="E13" t="str">
-        <v>images/demo/thirdStudent.xls</v>
+        <v>يدعم تحميل شكل بصيغة {fileType} فقط، أعد الخيار!</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>txt_1000263</v>
+        <v>txt_1000013</v>
       </c>
       <c r="B14" t="str">
-        <v>清除后将把该分组方案下所有小组解散且数据不可恢复</v>
+        <v>仅支持上传{fileSize}M以内图片，请您重新选择</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>Only support image within {fileSize} M, please select again</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>僅支援上傳{fileSize}M以內圖片，請您重新選擇</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>يدعم الشكل داخل {fileSize}M، أعد الخيار</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>txt_1000264</v>
+        <v>txt_1000014</v>
       </c>
       <c r="B15" t="str">
-        <v>学生账号</v>
+        <v>请仔细核对账号的正确性</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Check your account to be correct</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>請仔細核對帳號的正確性</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>دقق صحة رقم الحساب</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>accountTips</v>
+        <v>txt_1000015</v>
       </c>
       <c r="B16" t="str">
-        <v>学生可以使用自动生成的账号登录作业和课堂，密码默认Abc123456</v>
+        <v>班级名称为空</v>
       </c>
       <c r="C16" t="str">
-        <v>Students can use the automatically generated account to log in to assignments and classes, and the default password is Abc123456</v>
+        <v>No class name</v>
       </c>
       <c r="D16" t="str">
-        <v>學生可以使用自動生成的賬號登錄作業和課堂，默認密碼Abc123456</v>
+        <v>班級名稱為空</v>
       </c>
       <c r="E16" t="str">
-        <v>يمكن للطلاب استخدام الحساب تلقائيا تسجيل الدخول إلى العمليات والفصول الدراسية ، كلمة السر الافتراضية abc123456</v>
+        <v>اسم الصف فارغ</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>third_account_modal_title</v>
+        <v>txt_1000016</v>
       </c>
       <c r="B17" t="str">
-        <v>绑定第三方账号班级数据</v>
+        <v>班级名称不能多于50个字符</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Class name should be less than 50 characters</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>班級名稱不能多於50個字元</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>يتجاوز اسم الصف على 50 رمز</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>classes_empty_tips</v>
+        <v>txt_1000017</v>
       </c>
       <c r="B18" t="str">
-        <v>创建属于你的第一个班级，创建完成后，即可使用101教育PPT的特色工具</v>
+        <v>班级名称含有非法字符</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Class name include illegal characters</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>班級名稱含有非法字元</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>يتضمن اسم الصف الرمز غير الشرعي</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>txt_1000018</v>
+      </c>
+      <c r="B19" t="str">
+        <v>学段不能为空</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Enter your learning stage</v>
+      </c>
+      <c r="D19" t="str">
+        <v>學段不能為空</v>
+      </c>
+      <c r="E19" t="str">
+        <v>لا يكون الميدان الدراسي فارغا</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>txt_1000019</v>
+      </c>
+      <c r="B20" t="str">
+        <v>年级不能为空</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Enter your grade</v>
+      </c>
+      <c r="D20" t="str">
+        <v>年級不能為空</v>
+      </c>
+      <c r="E20" t="str">
+        <v>لا يكون السنة فارغة</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>txt_1000020</v>
+      </c>
+      <c r="B21" t="str">
+        <v>班级号不能为空</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Enter your class</v>
+      </c>
+      <c r="D21" t="str">
+        <v>班級號不能為空</v>
+      </c>
+      <c r="E21" t="str">
+        <v>لا يكون رقم الصف فارغا</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>txt_1000021</v>
+      </c>
+      <c r="B22" t="str">
+        <v>请选择加入权限</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Select to add permission</v>
+      </c>
+      <c r="D22" t="str">
+        <v>請選擇加入許可權</v>
+      </c>
+      <c r="E22" t="str">
+        <v>اختر صلاحية الاشتراك</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>txt_1000022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>转让帐号为空</v>
+      </c>
+      <c r="C23" t="str">
+        <v>No transfer account</v>
+      </c>
+      <c r="D23" t="str">
+        <v>轉讓帳號為空</v>
+      </c>
+      <c r="E23" t="str">
+        <v>رقم التنازل فارغ</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>txt_1000023</v>
+      </c>
+      <c r="B24" t="str">
+        <v>班内该座位号已存在</v>
+      </c>
+      <c r="C24" t="str">
+        <v>The seat number already exists in the class</v>
+      </c>
+      <c r="D24" t="str">
+        <v>班內該座位號已存在</v>
+      </c>
+      <c r="E24" t="str">
+        <v>تم وجود رقم المقعد داخل الصف</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>txt_1000024</v>
+      </c>
+      <c r="B25" t="str">
+        <v>座位号必须是1-100整数</v>
+      </c>
+      <c r="C25" t="str">
+        <v>The seat number should be integer from 1 to 100</v>
+      </c>
+      <c r="D25" t="str">
+        <v>座位號必須是1-100整數</v>
+      </c>
+      <c r="E25" t="str">
+        <v>يجب على أن يكون رقم المقعد 100-1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>txt_1000025</v>
+      </c>
+      <c r="B26" t="str">
+        <v>请选择右边学生</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Select student on the right</v>
+      </c>
+      <c r="D26" t="str">
+        <v>請選擇右邊學生</v>
+      </c>
+      <c r="E26" t="str">
+        <v>اختر الطالب الأيمن</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>txt_1000026</v>
+      </c>
+      <c r="B27" t="str">
+        <v>请选择左边学生</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Select student on the left</v>
+      </c>
+      <c r="D27" t="str">
+        <v>請選擇左邊學生</v>
+      </c>
+      <c r="E27" t="str">
+        <v>اختر الطالب الأيسر</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>txt_1000027</v>
+      </c>
+      <c r="B28" t="str">
+        <v>右边没有学生</v>
+      </c>
+      <c r="C28" t="str">
+        <v>No student on the right</v>
+      </c>
+      <c r="D28" t="str">
+        <v>右邊沒有學生</v>
+      </c>
+      <c r="E28" t="str">
+        <v>لا يوجد طالب على اليمين</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>txt_1000028</v>
+      </c>
+      <c r="B29" t="str">
+        <v>没有找到相关信息，请输入正确的账号</v>
+      </c>
+      <c r="C29" t="str">
+        <v>No relevant information found, please enter a correct account</v>
+      </c>
+      <c r="D29" t="str">
+        <v>沒有找到相關資訊，請輸入正確的帳號</v>
+      </c>
+      <c r="E29" t="str">
+        <v>لم يجد البيانات المتعلقة، أدخل رقم الحساب الصحيح</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>txt_1000029</v>
+      </c>
+      <c r="B30" t="str">
+        <v>账号不能为空</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Enter your account</v>
+      </c>
+      <c r="D30" t="str">
+        <v>帳號不能為空</v>
+      </c>
+      <c r="E30" t="str">
+        <v>لا يكون رقم الحساب فارغا</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>txt_1000030</v>
+      </c>
+      <c r="B31" t="str">
+        <v>账号不能多于30个字符</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Your account should be less than 30 characters</v>
+      </c>
+      <c r="D31" t="str">
+        <v>帳號不能多於30個字元</v>
+      </c>
+      <c r="E31" t="str">
+        <v>لا يمكن أن يتجاوز رقم الحساب على 30 رمز</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>txt_1000031</v>
+      </c>
+      <c r="B32" t="str">
+        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
+      </c>
+      <c r="C32" t="str">
+        <v>Please enter the Chinese character, letter, number</v>
+      </c>
+      <c r="D32" t="str">
+        <v>請輸入漢字、字母、數位</v>
+      </c>
+      <c r="E32" t="str">
+        <v>أدخل المربع الصيني، الحرف، العدد</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>txt_1000032</v>
+      </c>
+      <c r="B33" t="str">
+        <v>学生姓名不能为空</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Enter student name</v>
+      </c>
+      <c r="D33" t="str">
+        <v>學生姓名不能為空</v>
+      </c>
+      <c r="E33" t="str">
+        <v>لا يمكن أن يكون اسم الطالب فارغا</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>txt_1000033</v>
+      </c>
+      <c r="B34" t="str">
+        <v>学生姓名不能多于30个字符</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Student name should be less than 30 characters</v>
+      </c>
+      <c r="D34" t="str">
+        <v>學生姓名不能多於30個字元</v>
+      </c>
+      <c r="E34" t="str">
+        <v>لا يتجاوز اسم الطالب على 30 رمز</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>txt_1000034</v>
+      </c>
+      <c r="B35" t="str">
+        <v>性别不能为空</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Enter your gender</v>
+      </c>
+      <c r="D35" t="str">
+        <v>性別不能為空</v>
+      </c>
+      <c r="E35" t="str">
+        <v>لا يكون الجنس فارغا</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>txt_1000035</v>
+      </c>
+      <c r="B36" t="str">
+        <v>学号不能为空</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Enter your student number</v>
+      </c>
+      <c r="D36" t="str">
+        <v>學號不能為空</v>
+      </c>
+      <c r="E36" t="str">
+        <v>لا يكون الرقم الدراسي فارغا</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>txt_1000036</v>
+      </c>
+      <c r="B37" t="str">
+        <v>班级学号必须是数字、字母</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Student number of the class should be number and letter</v>
+      </c>
+      <c r="D37" t="str">
+        <v>班級學號必須是數位、字母</v>
+      </c>
+      <c r="E37" t="str">
+        <v>يجب أن يكون الرقم الدراسي للصف بالعدد والحرف</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>txt_1000037</v>
+      </c>
+      <c r="B38" t="str">
+        <v>学号不能多于30个字符</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Student number should be less than 30 characters</v>
+      </c>
+      <c r="D38" t="str">
+        <v>學號不能多於30個字元</v>
+      </c>
+      <c r="E38" t="str">
+        <v>لا يتجاوز الرقم الدراسي على 30 رمز</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>txt_1000038</v>
+      </c>
+      <c r="B39" t="str">
+        <v>班内已存在相同学号</v>
+      </c>
+      <c r="C39" t="str">
+        <v>The seat number already exists in the class</v>
+      </c>
+      <c r="D39" t="str">
+        <v>班內已存在相同學號</v>
+      </c>
+      <c r="E39" t="str">
+        <v>تم وجود نفس الرقم الدراسي في الصف</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>txt_1000039</v>
+      </c>
+      <c r="B40" t="str">
+        <v>这个班级只能添加{student_number}个学生了</v>
+      </c>
+      <c r="C40" t="str">
+        <v>This class only support to add {student_number} students.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>這個班級只能添加{student_number}個學生了</v>
+      </c>
+      <c r="E40" t="str">
+        <v>يمكن إضافة {student_number} طلاب في الصف</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>txt_1000040</v>
+      </c>
+      <c r="B41" t="str">
+        <v>一个班级不能超过100位学生</v>
+      </c>
+      <c r="C41" t="str">
+        <v>A class cannot exceed 100 students</v>
+      </c>
+      <c r="D41" t="str">
+        <v>一個班級不能超過100位學生</v>
+      </c>
+      <c r="E41" t="str">
+        <v>لا يتجاوز الصف على 100 طالب</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>txt_1000041</v>
+      </c>
+      <c r="B42" t="str">
+        <v>添加学生成功</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Add student success</v>
+      </c>
+      <c r="D42" t="str">
+        <v>添加學生成功</v>
+      </c>
+      <c r="E42" t="str">
+        <v>تم إضافة الطالب</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>txt_1000042</v>
+      </c>
+      <c r="B43" t="str">
+        <v>添加学生失败</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Add student failed</v>
+      </c>
+      <c r="D43" t="str">
+        <v>添加學生失敗</v>
+      </c>
+      <c r="E43" t="str">
+        <v>فشل إضافة الطالب</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>txt_1000043</v>
+      </c>
+      <c r="B44" t="str">
+        <v>分组数不能大于10</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Group number should be less than 10</v>
+      </c>
+      <c r="D44" t="str">
+        <v>分組數不能大於10</v>
+      </c>
+      <c r="E44" t="str">
+        <v>لا يتجاوز عدد القسم على 10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>txt_1000044</v>
+      </c>
+      <c r="B45" t="str">
+        <v>请先把小组内成员移出小组后才能删除小组</v>
+      </c>
+      <c r="C45" t="str">
+        <v>You should remove group members before you delete it.</v>
+      </c>
+      <c r="D45" t="str">
+        <v>請先把小組內成員移出小組後才能刪除小組</v>
+      </c>
+      <c r="E45" t="str">
+        <v>لا يمكن حذف القسم غلا بعد إخراج الأعضاء في القسم.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>txt_1000045</v>
+      </c>
+      <c r="B46" t="str">
+        <v>组名不能为空！</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Enter group name</v>
+      </c>
+      <c r="D46" t="str">
+        <v>組名不能為空！</v>
+      </c>
+      <c r="E46" t="str">
+        <v>لا يكون اسم القسم فارغا!</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>txt_1000046</v>
+      </c>
+      <c r="B47" t="str">
+        <v>分组名已存在，请更换分组名重试</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Group name already exist, please change it and try again</v>
+      </c>
+      <c r="D47" t="str">
+        <v>分組名已存在，請更換分組名重試</v>
+      </c>
+      <c r="E47" t="str">
+        <v>تم وجود اسم القسم، بدل اسم القسم وأعد المحاولة</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>txt_1000047</v>
+      </c>
+      <c r="B48" t="str">
+        <v>账号不存在</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Account not found</v>
+      </c>
+      <c r="D48" t="str">
+        <v>帳號不存在</v>
+      </c>
+      <c r="E48" t="str">
+        <v>لا يوجد رقم الحساب</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>txt_1000048</v>
+      </c>
+      <c r="B49" t="str">
+        <v>请在下拉列表选择老师</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Please select your teacher in the drop-down list</v>
+      </c>
+      <c r="D49" t="str">
+        <v>請在下拉清單選擇老師</v>
+      </c>
+      <c r="E49" t="str">
+        <v>اختر الأستاذ في القائمة</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>txt_1000049</v>
+      </c>
+      <c r="B50" t="str">
+        <v>该账号为认证用户，暂时无法添加</v>
+      </c>
+      <c r="C50" t="str">
+        <v>The account is authenticated and cannot be added temporarily</v>
+      </c>
+      <c r="D50" t="str">
+        <v>該帳號為認證用戶，暫時無法添加</v>
+      </c>
+      <c r="E50" t="str">
+        <v>يكون رقم الحساب مستخدما مصدقا ولا يمكن الإضافة موقتا</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>txt_1000050</v>
+      </c>
+      <c r="B51" t="str">
+        <v>请选择右边老师</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Select teacher on the right</v>
+      </c>
+      <c r="D51" t="str">
+        <v>請選擇右邊老師</v>
+      </c>
+      <c r="E51" t="str">
+        <v>اختر الأستاذ على اليمين</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>txt_1000051</v>
+      </c>
+      <c r="B52" t="str">
+        <v>右边没有老师</v>
+      </c>
+      <c r="C52" t="str">
+        <v>No teacher on the right</v>
+      </c>
+      <c r="D52" t="str">
+        <v>右邊沒有老師</v>
+      </c>
+      <c r="E52" t="str">
+        <v>لا يوجد أستاذ على اليمين</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>txt_1000052</v>
+      </c>
+      <c r="B53" t="str">
+        <v>请选择左边老师</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Select teacher on the left</v>
+      </c>
+      <c r="D53" t="str">
+        <v>請選擇左邊老師</v>
+      </c>
+      <c r="E53" t="str">
+        <v>اختر الأستاذ على اليسار</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>txt_1000053</v>
+      </c>
+      <c r="B54" t="str">
+        <v xml:space="preserve">请输入汉字、字母、数字、空格、@、. 、· </v>
+      </c>
+      <c r="C54" t="str">
+        <v>Please enter the Chinese character, letter, or number</v>
+      </c>
+      <c r="D54" t="str">
+        <v>請輸入漢字、字母或數位</v>
+      </c>
+      <c r="E54" t="str">
+        <v>أدخل المربعات الصينية أو الحرف أو العدد</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>txt_1000054</v>
+      </c>
+      <c r="B55" t="str">
+        <v>请输入1-100个字符</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Enter character from 1 to 100</v>
+      </c>
+      <c r="D55" t="str">
+        <v>請輸入1-100個字元</v>
+      </c>
+      <c r="E55" t="str">
+        <v>أدخل 100-1 حرف</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>txt_1000055</v>
+      </c>
+      <c r="B56" t="str">
+        <v>我创建的班级</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Classes created</v>
+      </c>
+      <c r="D56" t="str">
+        <v>我創建的班級</v>
+      </c>
+      <c r="E56" t="str">
+        <v>الصف المنشأ</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>txt_1000056</v>
+      </c>
+      <c r="B57" t="str">
+        <v>我加入的班级</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve">Classes Joined </v>
+      </c>
+      <c r="D57" t="str">
+        <v>我加入的班級</v>
+      </c>
+      <c r="E57" t="str">
+        <v>صف أشارك فيه</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>txt_1000057</v>
+      </c>
+      <c r="B58" t="str">
+        <v>小学</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Primary school</v>
+      </c>
+      <c r="D58" t="str">
+        <v>小學</v>
+      </c>
+      <c r="E58" t="str">
+        <v>المدرسة الابتدائية</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>txt_1000058</v>
+      </c>
+      <c r="B59" t="str">
+        <v>初中</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Junior high school</v>
+      </c>
+      <c r="D59" t="str">
+        <v>初中</v>
+      </c>
+      <c r="E59" t="str">
+        <v>المدرسة الإعدادية</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>txt_1000059</v>
+      </c>
+      <c r="B60" t="str">
+        <v>高中</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Senior high school</v>
+      </c>
+      <c r="D60" t="str">
+        <v>高中</v>
+      </c>
+      <c r="E60" t="str">
+        <v>المدرسة الثانوية</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>txt_1000060</v>
+      </c>
+      <c r="B61" t="str">
+        <v>未设置</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Please set</v>
+      </c>
+      <c r="D61" t="str">
+        <v>未設置</v>
+      </c>
+      <c r="E61" t="str">
+        <v>لم يعد</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>txt_1000061</v>
+      </c>
+      <c r="B62" t="str">
+        <v>默认密码为:123456</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Default passwords:123456</v>
+      </c>
+      <c r="D62" t="str">
+        <v>預設密碼為:123456</v>
+      </c>
+      <c r="E62" t="str">
+        <v>كلمة المرور الافتراضية: 123456</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>txt_1000062</v>
+      </c>
+      <c r="B63" t="str">
+        <v>返回</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Return</v>
+      </c>
+      <c r="D63" t="str">
+        <v>返回</v>
+      </c>
+      <c r="E63" t="str">
+        <v>العوده</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>txt_1000063</v>
+      </c>
+      <c r="B64" t="str">
+        <v>设置</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Settings</v>
+      </c>
+      <c r="D64" t="str">
+        <v>設置</v>
+      </c>
+      <c r="E64" t="str">
+        <v>الإعدادات</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>txt_1000064</v>
+      </c>
+      <c r="B65" t="str">
+        <v>学生</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Student</v>
+      </c>
+      <c r="D65" t="str">
+        <v>學生</v>
+      </c>
+      <c r="E65" t="str">
+        <v>طالب</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>txt_1000065</v>
+      </c>
+      <c r="B66" t="str">
+        <v>分组</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Set Teams</v>
+      </c>
+      <c r="D66" t="str">
+        <v>分組</v>
+      </c>
+      <c r="E66" t="str">
+        <v>تقسيم</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>txt_1000066</v>
+      </c>
+      <c r="B67" t="str">
+        <v>老师</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Teacher</v>
+      </c>
+      <c r="D67" t="str">
+        <v>老師</v>
+      </c>
+      <c r="E67" t="str">
+        <v>المدرس</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>txt_1000067</v>
+      </c>
+      <c r="B68" t="str">
+        <v>人</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Person</v>
+      </c>
+      <c r="D68" t="str">
+        <v>人</v>
+      </c>
+      <c r="E68" t="str">
+        <v>فرد</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>txt_1000068</v>
+      </c>
+      <c r="B69" t="str">
+        <v>编辑班级</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Edit the class</v>
+      </c>
+      <c r="D69" t="str">
+        <v>編輯班級</v>
+      </c>
+      <c r="E69" t="str">
+        <v>تحرير الصف</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>txt_1000069</v>
+      </c>
+      <c r="B70" t="str">
+        <v>创建班级</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Create a class</v>
+      </c>
+      <c r="D70" t="str">
+        <v>創建班級</v>
+      </c>
+      <c r="E70" t="str">
+        <v>إنشاء الصف</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>txt_1000070</v>
+      </c>
+      <c r="B71" t="str">
+        <v>只支持上传文件大小在2M以内的jpg、png图片</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Only support images of JPG or PNG within 2M</v>
+      </c>
+      <c r="D71" t="str">
+        <v>只支援上傳檔大小在2M以內的jpg、png圖片</v>
+      </c>
+      <c r="E71" t="str">
+        <v>يدعم تحميل الشكل jpg وpng داخل حجم 2M</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>txt_1000071</v>
+      </c>
+      <c r="B72" t="str">
+        <v>修改封面</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Change the cover</v>
+      </c>
+      <c r="D72" t="str">
+        <v>修改封面</v>
+      </c>
+      <c r="E72" t="str">
+        <v>تعديل صفحة الغلاف</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>txt_1000072</v>
+      </c>
+      <c r="B73" t="str">
+        <v>班级名称</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Class name</v>
+      </c>
+      <c r="D73" t="str">
+        <v>班級名稱</v>
+      </c>
+      <c r="E73" t="str">
+        <v>اسم الصف</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>txt_1000073</v>
+      </c>
+      <c r="B74" t="str">
+        <v>名称不对多余30个字符</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Class name should be less than 30 characters</v>
+      </c>
+      <c r="D74" t="str">
+        <v>名稱不對多餘30個字元</v>
+      </c>
+      <c r="E74" t="str">
+        <v>خطأ الاسم و30 رمز زائد</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>txt_1000074</v>
+      </c>
+      <c r="B75" t="str">
+        <v>班级信息</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Class information</v>
+      </c>
+      <c r="D75" t="str">
+        <v>班級信息</v>
+      </c>
+      <c r="E75" t="str">
+        <v>بيانات الصف</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>txt_1000075</v>
+      </c>
+      <c r="B76" t="str">
+        <v>邀请加入</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Invite to join</v>
+      </c>
+      <c r="D76" t="str">
+        <v>邀請加入</v>
+      </c>
+      <c r="E76" t="str">
+        <v>دعوة المشاركة</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>txt_1000076</v>
+      </c>
+      <c r="B77" t="str">
+        <v>邀请或自主加入</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Invited or join by yourself</v>
+      </c>
+      <c r="D77" t="str">
+        <v>邀請或自主加入</v>
+      </c>
+      <c r="E77" t="str">
+        <v>دعوة أو مشاركة مبادرة</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>txt_1000077</v>
+      </c>
+      <c r="B78" t="str">
+        <v>取消</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D78" t="str">
+        <v>取消</v>
+      </c>
+      <c r="E78" t="str">
+        <v>إلغاء</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>txt_1000078</v>
+      </c>
+      <c r="B79" t="str">
+        <v>保存</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Save</v>
+      </c>
+      <c r="D79" t="str">
+        <v>保存</v>
+      </c>
+      <c r="E79" t="str">
+        <v>حفظ</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>txt_1000079</v>
+      </c>
+      <c r="B80" t="str">
+        <v>转让班级</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Transfer the class</v>
+      </c>
+      <c r="D80" t="str">
+        <v>轉讓班級</v>
+      </c>
+      <c r="E80" t="str">
+        <v>تنازل الصف</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>txt_1000080</v>
+      </c>
+      <c r="B81" t="str">
+        <v>解散班级</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Dismiss the class</v>
+      </c>
+      <c r="D81" t="str">
+        <v>解散班級</v>
+      </c>
+      <c r="E81" t="str">
+        <v>حل الصف</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>txt_1000081</v>
+      </c>
+      <c r="B82" t="str">
+        <v>班级设置</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Class setting</v>
+      </c>
+      <c r="D82" t="str">
+        <v>班級設置</v>
+      </c>
+      <c r="E82" t="str">
+        <v>إعدادات الصف</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>txt_1000082</v>
+      </c>
+      <c r="B83" t="str">
+        <v>加入权限</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Add to the permission</v>
+      </c>
+      <c r="D83" t="str">
+        <v>加入許可權</v>
+      </c>
+      <c r="E83" t="str">
+        <v>صلاحية المشاركة</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>txt_1000083</v>
+      </c>
+      <c r="B84" t="str">
+        <v>输入姓名/昵称/帐户</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Enter name/nickname/account</v>
+      </c>
+      <c r="D84" t="str">
+        <v>輸入姓名/暱稱/帳戶</v>
+      </c>
+      <c r="E84" t="str">
+        <v>تنازل رقم الحساب</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>txt_1000084</v>
+      </c>
+      <c r="B85" t="str">
+        <v>非常抱歉，未找到你搜索的信息</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Sorry, no information found</v>
+      </c>
+      <c r="D85" t="str">
+        <v>非常抱歉，未找到你搜索的資訊</v>
+      </c>
+      <c r="E85" t="str">
+        <v>عفوا، لم يجد بيانات البحث</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>txt_1000085</v>
+      </c>
+      <c r="B86" t="str">
+        <v>转让类型</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Transfer type</v>
+      </c>
+      <c r="D86" t="str">
+        <v>轉讓類型</v>
+      </c>
+      <c r="E86" t="str">
+        <v>نوع التنازل</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>txt_1000086</v>
+      </c>
+      <c r="B87" t="str">
+        <v>转让班级管理权限</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Transfer class management authority</v>
+      </c>
+      <c r="D87" t="str">
+        <v>轉讓班級管理許可權</v>
+      </c>
+      <c r="E87" t="str">
+        <v>تنازل صلاحية إدارة الصف</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>txt_1000087</v>
+      </c>
+      <c r="B88" t="str">
+        <v>转让班级管理权限并退出班级</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Transfer class management authority and exit the class</v>
+      </c>
+      <c r="D88" t="str">
+        <v>轉讓班級管理許可權並退出班級</v>
+      </c>
+      <c r="E88" t="str">
+        <v>تنازل صلاحية إدارة الصف وخروج الصف</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>txt_1000088</v>
+      </c>
+      <c r="B89" t="str">
+        <v>解散班级将删除所有学生和老师信息</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Dismiss the class will delete all information of students and teachers</v>
+      </c>
+      <c r="D89" t="str">
+        <v>解散班級將刪除所有學生和老師資訊</v>
+      </c>
+      <c r="E89" t="str">
+        <v>حل الصف يحذف جميع بيانات الطلاب والأساتذة</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>txt_1000089</v>
+      </c>
+      <c r="B90" t="str">
+        <v>解散</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Dismiss</v>
+      </c>
+      <c r="D90" t="str">
+        <v>解散</v>
+      </c>
+      <c r="E90" t="str">
+        <v>الحل</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>txt_1000090</v>
+      </c>
+      <c r="B91" t="str">
+        <v>退出班级</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Exit the class</v>
+      </c>
+      <c r="D91" t="str">
+        <v>退出班級</v>
+      </c>
+      <c r="E91" t="str">
+        <v>خروج الصف</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>txt_1000091</v>
+      </c>
+      <c r="B92" t="str">
+        <v>您确定退出该班级</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Are you sure to exit this class?</v>
+      </c>
+      <c r="D92" t="str">
+        <v>您確定退出該班級</v>
+      </c>
+      <c r="E92" t="str">
+        <v>هل توافق على خروج الصف</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>txt_1000092</v>
+      </c>
+      <c r="B93" t="str">
+        <v>退出</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Exit</v>
+      </c>
+      <c r="D93" t="str">
+        <v>退出</v>
+      </c>
+      <c r="E93" t="str">
+        <v>خروج</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>txt_1000093</v>
+      </c>
+      <c r="B94" t="str">
+        <v>上传封面</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Upload cover</v>
+      </c>
+      <c r="D94" t="str">
+        <v>上傳封面</v>
+      </c>
+      <c r="E94" t="str">
+        <v>تحميل صفحة الغلاف</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>txt_1000094</v>
+      </c>
+      <c r="B95" t="str">
+        <v>预览</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Preview</v>
+      </c>
+      <c r="D95" t="str">
+        <v>預覽</v>
+      </c>
+      <c r="E95" t="str">
+        <v>تصفح</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>txt_1000095</v>
+      </c>
+      <c r="B96" t="str">
+        <v>选择文件</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Select file</v>
+      </c>
+      <c r="D96" t="str">
+        <v>選擇檔</v>
+      </c>
+      <c r="E96" t="str">
+        <v>خيار الملف</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>txt_1000096</v>
+      </c>
+      <c r="B97" t="str">
+        <v>删除小组</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Delete group</v>
+      </c>
+      <c r="D97" t="str">
+        <v>刪除小組</v>
+      </c>
+      <c r="E97" t="str">
+        <v>حذف القسم</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>txt_1000097</v>
+      </c>
+      <c r="B98" t="str">
+        <v>将删除该小组及组内所有成员</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Delete the group including all the members</v>
+      </c>
+      <c r="D98" t="str">
+        <v>將刪除該小組及組內所有成員</v>
+      </c>
+      <c r="E98" t="str">
+        <v>سيحذف هذا القسم وجميع أعضاء هذا القسم</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>txt_1000098</v>
+      </c>
+      <c r="B99" t="str">
+        <v>删除</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Delete</v>
+      </c>
+      <c r="D99" t="str">
+        <v>刪除</v>
+      </c>
+      <c r="E99" t="str">
+        <v>حذف</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>txt_1000099</v>
+      </c>
+      <c r="B100" t="str">
+        <v>组别命名</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Group Name</v>
+      </c>
+      <c r="D100" t="str">
+        <v>組別命名</v>
+      </c>
+      <c r="E100" t="str">
+        <v>تسمية القسم</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>txt_1000100</v>
+      </c>
+      <c r="B101" t="str">
+        <v>命名</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D101" t="str">
+        <v>命名</v>
+      </c>
+      <c r="E101" t="str">
+        <v>تسمية</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>txt_1000101</v>
+      </c>
+      <c r="B102" t="str">
+        <v>不能为空</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Please enter</v>
+      </c>
+      <c r="D102" t="str">
+        <v>不能為空</v>
+      </c>
+      <c r="E102" t="str">
+        <v>لا يكون فارغا</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>txt_1000102</v>
+      </c>
+      <c r="B103" t="str">
+        <v>添加学生</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Add student</v>
+      </c>
+      <c r="D103" t="str">
+        <v>添加學生</v>
+      </c>
+      <c r="E103" t="str">
+        <v>إضافة الطالب</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>txt_1000103</v>
+      </c>
+      <c r="B104" t="str">
+        <v>输入姓名/昵称/帐户</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Enter an account to search the student</v>
+      </c>
+      <c r="D104" t="str">
+        <v>输入姓名/昵称/帐户</v>
+      </c>
+      <c r="E104" t="str">
+        <v>أدخل رقم الحساب لبحث الطالب</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>txt_1000104</v>
+      </c>
+      <c r="B105" t="str">
+        <v>本校的学生</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Our student</v>
+      </c>
+      <c r="D105" t="str">
+        <v>本校的學生</v>
+      </c>
+      <c r="E105" t="str">
+        <v>طلاب المدرسة</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>txt_1000105</v>
+      </c>
+      <c r="B106" t="str">
+        <v>添加</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Add</v>
+      </c>
+      <c r="D106" t="str">
+        <v>添加</v>
+      </c>
+      <c r="E106" t="str">
+        <v>إضافة</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>txt_1000106</v>
+      </c>
+      <c r="B107" t="str">
+        <v>已选择的学生</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Student selected</v>
+      </c>
+      <c r="D107" t="str">
+        <v>已選擇的學生</v>
+      </c>
+      <c r="E107" t="str">
+        <v>الطالب المختار</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>txt_1000107</v>
+      </c>
+      <c r="B108" t="str">
+        <v>手动编辑</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Single add</v>
+      </c>
+      <c r="D108" t="str">
+        <v>單個添加</v>
+      </c>
+      <c r="E108" t="str">
+        <v>إضافة وحدة</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>txt_1000108</v>
+      </c>
+      <c r="B109" t="str">
+        <v>批量添加</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Bulk add</v>
+      </c>
+      <c r="D109" t="str">
+        <v>批量添加</v>
+      </c>
+      <c r="E109" t="str">
+        <v>إضافة جماعة</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>txt_1000109</v>
+      </c>
+      <c r="B110" t="str">
+        <v>添加已有帐号学生</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Add student already has account</v>
+      </c>
+      <c r="D110" t="str">
+        <v>添加已有帳號學生</v>
+      </c>
+      <c r="E110" t="str">
+        <v>إضافة طلاب الحسابات المتواجدة</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>txt_1000110</v>
+      </c>
+      <c r="B111" t="str">
+        <v>学生姓名</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Student name</v>
+      </c>
+      <c r="D111" t="str">
+        <v>學生姓名</v>
+      </c>
+      <c r="E111" t="str">
+        <v>اسم الطالب</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>txt_1000111</v>
+      </c>
+      <c r="B112" t="str">
+        <v>性别</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="D112" t="str">
+        <v>性別</v>
+      </c>
+      <c r="E112" t="str">
+        <v>الجنس</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>txt_1000112</v>
+      </c>
+      <c r="B113" t="str">
+        <v>班内学号</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Student number of the class</v>
+      </c>
+      <c r="D113" t="str">
+        <v>班內學號</v>
+      </c>
+      <c r="E113" t="str">
+        <v>الرقم الدراسي داخل الصف</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>txt_1000113</v>
+      </c>
+      <c r="B114" t="str">
+        <v>男生</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Boys</v>
+      </c>
+      <c r="D114" t="str">
+        <v>男生</v>
+      </c>
+      <c r="E114" t="str">
+        <v>الطالب</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>txt_1000114</v>
+      </c>
+      <c r="B115" t="str">
+        <v>女生</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Girls</v>
+      </c>
+      <c r="D115" t="str">
+        <v>女生</v>
+      </c>
+      <c r="E115" t="str">
+        <v>الطالبة</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>txt_1000115</v>
+      </c>
+      <c r="B116" t="str">
+        <v>班内座号</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Seat number of the class</v>
+      </c>
+      <c r="D116" t="str">
+        <v>班內座號</v>
+      </c>
+      <c r="E116" t="str">
+        <v>رقم المقعد داخل الصف</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>txt_1000116</v>
+      </c>
+      <c r="B117" t="str">
+        <v>通过Excel表格批量导入学生，请先下载</v>
+      </c>
+      <c r="C117" t="str">
+        <v>To import students in bulk through Excel, please download the form first</v>
+      </c>
+      <c r="D117" t="str">
+        <v>通過Excel表格批量導入學生，請先下載</v>
+      </c>
+      <c r="E117" t="str">
+        <v>يدخل الطلاب عبر جدول Excel، نزل أولا</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>txt_1000117</v>
+      </c>
+      <c r="B118" t="str">
+        <v>批量添加模板</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Add template in bulk</v>
+      </c>
+      <c r="D118" t="str">
+        <v>批量添加範本</v>
+      </c>
+      <c r="E118" t="str">
+        <v>إضافة النموذج</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>txt_1000118</v>
+      </c>
+      <c r="B119" t="str">
+        <v>为了保证批量添加成功率，需注意以下几点：</v>
+      </c>
+      <c r="C119" t="str">
+        <v>To ensure the success rate, please note the following points when you add in bulk:</v>
+      </c>
+      <c r="D119" t="str">
+        <v>為了保證批量添加成功率，需注意以下幾點：</v>
+      </c>
+      <c r="E119" t="str">
+        <v>من أجل ضمان نسبة نجاح الإضافة، يحتاج إلى الانتباه إلى النقاط الآتية:</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>txt_1000119</v>
+      </c>
+      <c r="B120" t="str">
+        <v>1、请严格按照模板填写学生信息</v>
+      </c>
+      <c r="C120" t="str">
+        <v>1.Fill the student information strictly according to the template</v>
+      </c>
+      <c r="D120" t="str">
+        <v>1、請嚴格按照範本填寫學生資訊</v>
+      </c>
+      <c r="E120" t="str">
+        <v>1. يكتب بيانات الطالب حسب النموذج</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>txt_1000120</v>
+      </c>
+      <c r="B121" t="str">
+        <v>2、请勿随意修改模板名称</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2.Do not modify the template name</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2、請勿隨意修改範本名稱</v>
+      </c>
+      <c r="E121" t="str">
+        <v>2. ممنوع تعديل اسم النموذج عشوائيا</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>txt_1000121</v>
+      </c>
+      <c r="B122" t="str">
+        <v>学生帐号</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Student account</v>
+      </c>
+      <c r="D122" t="str">
+        <v>學生帳號</v>
+      </c>
+      <c r="E122" t="str">
+        <v>رقم حساب الطالب</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>txt_1000122</v>
+      </c>
+      <c r="B123" t="str">
+        <v>添加结果</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Add result</v>
+      </c>
+      <c r="D123" t="str">
+        <v>添加結果</v>
+      </c>
+      <c r="E123" t="str">
+        <v>نتيجة الإضافة</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>txt_1000123</v>
+      </c>
+      <c r="B124" t="str">
+        <v>您共导入成功</v>
+      </c>
+      <c r="C124" t="str">
+        <v xml:space="preserve">Successfully import </v>
+      </c>
+      <c r="D124" t="str">
+        <v>您共導入成功</v>
+      </c>
+      <c r="E124" t="str">
+        <v>تم إضافة {count} إجمالا</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>txt_1000124</v>
+      </c>
+      <c r="B125" t="str">
+        <v>导入失败</v>
+      </c>
+      <c r="C125" t="str">
+        <v xml:space="preserve">Failed to import </v>
+      </c>
+      <c r="D125" t="str">
+        <v>導入失敗</v>
+      </c>
+      <c r="E125" t="str">
+        <v>فشل إدخال {count} فرد</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>txt_1000125</v>
+      </c>
+      <c r="B126" t="str">
+        <v>恭喜，所有学生已成功添加</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Congratulations! All students have been add successfully</v>
+      </c>
+      <c r="D126" t="str">
+        <v>恭喜，所有學生已成功添加</v>
+      </c>
+      <c r="E126" t="str">
+        <v>مبروك، تم إضافة جميع الطلاب</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>txt_1000126</v>
+      </c>
+      <c r="B127" t="str">
+        <v>确定</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="D127" t="str">
+        <v>確定</v>
+      </c>
+      <c r="E127" t="str">
+        <v>موافق</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>txt_1000127</v>
+      </c>
+      <c r="B128" t="str">
+        <v>错误原因</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="D128" t="str">
+        <v>錯誤原因</v>
+      </c>
+      <c r="E128" t="str">
+        <v>سبب الخطأ</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>txt_1000128</v>
+      </c>
+      <c r="B129" t="str">
+        <v>编辑信息</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Edit information</v>
+      </c>
+      <c r="D129" t="str">
+        <v>編輯資訊</v>
+      </c>
+      <c r="E129" t="str">
+        <v>تحرير البيانات</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>txt_1000129</v>
+      </c>
+      <c r="B130" t="str">
+        <v>移除学生</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Remove student</v>
+      </c>
+      <c r="D130" t="str">
+        <v>移除學生</v>
+      </c>
+      <c r="E130" t="str">
+        <v>حذف الطلاب</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>txt_1000130</v>
+      </c>
+      <c r="B131" t="str">
+        <v>确定要将该学生移出班级</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Confirm to remove the student?</v>
+      </c>
+      <c r="D131" t="str">
+        <v>確定要將該學生移出班級</v>
+      </c>
+      <c r="E131" t="str">
+        <v>هل توافق على إخراج الطالب من الصف</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>txt_1000131</v>
+      </c>
+      <c r="B132" t="str">
+        <v>否</v>
+      </c>
+      <c r="C132" t="str">
+        <v>No</v>
+      </c>
+      <c r="D132" t="str">
+        <v>否</v>
+      </c>
+      <c r="E132" t="str">
+        <v>لا</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>txt_1000132</v>
+      </c>
+      <c r="B133" t="str">
+        <v>是</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D133" t="str">
+        <v>是</v>
+      </c>
+      <c r="E133" t="str">
+        <v>نعم</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>txt_1000133</v>
+      </c>
+      <c r="B134" t="str">
+        <v>添加老师</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Add teacher</v>
+      </c>
+      <c r="D134" t="str">
+        <v>添加老師</v>
+      </c>
+      <c r="E134" t="str">
+        <v>إضافة الأستاذ</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>txt_1000134</v>
+      </c>
+      <c r="B135" t="str">
+        <v>输入账号搜索老师</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Enter an account to search the teacher</v>
+      </c>
+      <c r="D135" t="str">
+        <v>輸入帳號搜索老師</v>
+      </c>
+      <c r="E135" t="str">
+        <v>بحث الأستاذ عبر إدخال رقم الحساب</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>txt_1000135</v>
+      </c>
+      <c r="B136" t="str">
+        <v>本校的老师</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Our teacher</v>
+      </c>
+      <c r="D136" t="str">
+        <v>本校的老師</v>
+      </c>
+      <c r="E136" t="str">
+        <v>أستاذ المدرسة</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>txt_1000136</v>
+      </c>
+      <c r="B137" t="str">
+        <v>已选择的老师</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Teacher selected</v>
+      </c>
+      <c r="D137" t="str">
+        <v>已選擇的老師</v>
+      </c>
+      <c r="E137" t="str">
+        <v>الأستاذ المختار</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>txt_1000137</v>
+      </c>
+      <c r="B138" t="str">
+        <v>知道了</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Got it</v>
+      </c>
+      <c r="D138" t="str">
+        <v>知道了</v>
+      </c>
+      <c r="E138" t="str">
+        <v>عرفت</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>txt_1000138</v>
+      </c>
+      <c r="B139" t="str">
+        <v>行政分组</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Executive grouping</v>
+      </c>
+      <c r="D139" t="str">
+        <v>行政分組</v>
+      </c>
+      <c r="E139" t="str">
+        <v>القسم الإداري</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>txt_1000139</v>
+      </c>
+      <c r="B140" t="str">
+        <v>自建分组</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Set Team</v>
+      </c>
+      <c r="D140" t="str">
+        <v>自建分組</v>
+      </c>
+      <c r="E140" t="str">
+        <v>قسم الإنشاء الذاتي</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>txt_1000140</v>
+      </c>
+      <c r="B141" t="str">
+        <v>新增组别</v>
+      </c>
+      <c r="C141" t="str">
+        <v>New Team</v>
+      </c>
+      <c r="D141" t="str">
+        <v>新增組別</v>
+      </c>
+      <c r="E141" t="str">
+        <v>إضافة القسم</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>txt_1000141</v>
+      </c>
+      <c r="B142" t="str">
+        <v>请先添加自建分组</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Add your self-build grouping first</v>
+      </c>
+      <c r="D142" t="str">
+        <v>請先添加自建分組</v>
+      </c>
+      <c r="E142" t="str">
+        <v>أضف القسم الذاتي</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>txt_1000142</v>
+      </c>
+      <c r="B143" t="str">
+        <v>将右侧学生头像拖到这里进行编组</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Drag student avatar from the right list to edit</v>
+      </c>
+      <c r="D143" t="str">
+        <v>將右側學生頭像拖到這裡進行編組</v>
+      </c>
+      <c r="E143" t="str">
+        <v>اسحب صورة الطالب على اليمين إلى هنا لإعداد القسم</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>txt_1000143</v>
+      </c>
+      <c r="B144" t="str">
+        <v>移出小组</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Remove from the group</v>
+      </c>
+      <c r="D144" t="str">
+        <v>移出小組</v>
+      </c>
+      <c r="E144" t="str">
+        <v>إخراج من القسم</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>txt_1000144</v>
+      </c>
+      <c r="B145" t="str">
+        <v>不轮值</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Fix Team Leader</v>
+      </c>
+      <c r="D145" t="str">
+        <v>不輪值</v>
+      </c>
+      <c r="E145" t="str">
+        <v>قيمة</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>txt_1000145</v>
+      </c>
+      <c r="B146" t="str">
+        <v>每周</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Per week</v>
+      </c>
+      <c r="D146" t="str">
+        <v>每週</v>
+      </c>
+      <c r="E146" t="str">
+        <v>كل أسبوع</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>txt_1000146</v>
+      </c>
+      <c r="B147" t="str">
+        <v>每月</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Per month</v>
+      </c>
+      <c r="D147" t="str">
+        <v>每月</v>
+      </c>
+      <c r="E147" t="str">
+        <v>كل شهر</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>txt_1000147</v>
+      </c>
+      <c r="B148" t="str">
+        <v>行政班自带分组暂不支持编辑</v>
+      </c>
+      <c r="C148" t="str">
+        <v>The executive class with its own grouping functions does not support editing</v>
+      </c>
+      <c r="D148" t="str">
+        <v>行政班自帶分組暫不支持編輯</v>
+      </c>
+      <c r="E148" t="str">
+        <v>لا يدعم قسم الصف الإداري التحرير</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>txt_1000148</v>
+      </c>
+      <c r="B149" t="str">
+        <v>为您找到相关学生{count}个</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Find relevant students for you {count}</v>
+      </c>
+      <c r="D149" t="str">
+        <v>為您找到相關學生{count}個</v>
+      </c>
+      <c r="E149" t="str">
+        <v>يبحث لكم {count} طالب</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>txt_1000149</v>
+      </c>
+      <c r="B150" t="str">
+        <v>该班级尚未录入学生信息</v>
+      </c>
+      <c r="C150" t="str">
+        <v>This class has not imported students' information</v>
+      </c>
+      <c r="D150" t="str">
+        <v>該班級尚未錄入學生資訊</v>
+      </c>
+      <c r="E150" t="str">
+        <v>لم يدخل بيانات الطالب لهذا الصف</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>txt_1000150</v>
+      </c>
+      <c r="B151" t="str">
+        <v>所有学生都已分组</v>
+      </c>
+      <c r="C151" t="str">
+        <v>All students have been grouped</v>
+      </c>
+      <c r="D151" t="str">
+        <v>所有學生都已分組</v>
+      </c>
+      <c r="E151" t="str">
+        <v>تم تقسيم جميع الطلاب</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>txt_1000151</v>
+      </c>
+      <c r="B152" t="str">
+        <v>可从左侧拖入学生头像移除分组</v>
+      </c>
+      <c r="C152" t="str">
+        <v>You can remove students by dragging their avatars here</v>
+      </c>
+      <c r="D152" t="str">
+        <v>可從左側拖入學生頭像移除分組</v>
+      </c>
+      <c r="E152" t="str">
+        <v>يمكن سحب صورة الطالب من اليسار لحذف القسم</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>txt_1000152</v>
+      </c>
+      <c r="B153" t="str">
+        <v>加入小组</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Add to the group</v>
+      </c>
+      <c r="D153" t="str">
+        <v>加入小組</v>
+      </c>
+      <c r="E153" t="str">
+        <v>إضافة إلى القسم</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>txt_1000153</v>
+      </c>
+      <c r="B154" t="str">
+        <v>可直接拖入小组</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Drag to the group directly</v>
+      </c>
+      <c r="D154" t="str">
+        <v>可直接拖入小組</v>
+      </c>
+      <c r="E154" t="str">
+        <v>يمكن إدخال إلى القسم مباشرة</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>txt_1000154</v>
+      </c>
+      <c r="B155" t="str">
+        <v>数据加载中，请稍后…</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Loading data, please wait…</v>
+      </c>
+      <c r="D155" t="str">
+        <v>數據載入中，請稍後…</v>
+      </c>
+      <c r="E155" t="str">
+        <v>جار تحميل البيانات، انتظر ...</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>txt_1000155</v>
+      </c>
+      <c r="B156" t="str">
+        <v>您可以从右侧列表快速加入已有的班级，也可以</v>
+      </c>
+      <c r="C156" t="str">
+        <v>You can quickly add to the existing class from the right list, as well as</v>
+      </c>
+      <c r="D156" t="str">
+        <v>您可以從右側列表快速加入已有的班級，也可以</v>
+      </c>
+      <c r="E156" t="str">
+        <v>يمكنكم إضافة الصف المتواجد بسرعة من القائمة اليمنى، كما يمكنكم</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>txt_1000156</v>
+      </c>
+      <c r="B157" t="str">
+        <v>您可以从右侧列表快速加入已有的班级</v>
+      </c>
+      <c r="C157" t="str">
+        <v>You can quickly add to the existing class from the right list</v>
+      </c>
+      <c r="D157" t="str">
+        <v>您可以從右側列表快速加入已有的班級</v>
+      </c>
+      <c r="E157" t="str">
+        <v>إضافة إلى الصف المتواجد من القائمة اليمنى</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>txt_1000157</v>
+      </c>
+      <c r="B158" t="str">
+        <v>您还未加入任何班级，试试查看我创建的班级或创建班级</v>
+      </c>
+      <c r="C158" t="str">
+        <v>You have not added any classes yet</v>
+      </c>
+      <c r="D158" t="str">
+        <v>您還未加入任何班級</v>
+      </c>
+      <c r="E158" t="str">
+        <v>لم تشارك إلى أي صف</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>txt_1000158</v>
+      </c>
+      <c r="B159" t="str">
+        <v>行政班</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Executive class</v>
+      </c>
+      <c r="D159" t="str">
+        <v>行政班</v>
+      </c>
+      <c r="E159" t="str">
+        <v>الصف الإداري</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>txt_1000159</v>
+      </c>
+      <c r="B160" t="str">
+        <v>新建班级</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Create a Class</v>
+      </c>
+      <c r="D160" t="str">
+        <v>新建班級</v>
+      </c>
+      <c r="E160" t="str">
+        <v>إنشاء الصف الجديد</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>txt_1000160</v>
+      </c>
+      <c r="B161" t="str">
+        <v>所在学校已创建的班级</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Classes created by the school</v>
+      </c>
+      <c r="D161" t="str">
+        <v>所在學校已創建的班級</v>
+      </c>
+      <c r="E161" t="str">
+        <v>الصفوف المنشاة في المدرسة</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>txt_1000161</v>
+      </c>
+      <c r="B162" t="str">
+        <v>输入搜索内容</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Search</v>
+      </c>
+      <c r="D162" t="str">
+        <v>輸入搜索內容</v>
+      </c>
+      <c r="E162" t="str">
+        <v>إدخال مضمونات البحث</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>txt_1000162</v>
+      </c>
+      <c r="B163" t="str">
+        <v>为您找到相关班级{count}个</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Find relevant classes for you {count}</v>
+      </c>
+      <c r="D163" t="str">
+        <v>為您找到相關班級{count}個</v>
+      </c>
+      <c r="E163" t="str">
+        <v>يجد {count} صف لكم</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>txt_1000163</v>
+      </c>
+      <c r="B164" t="str">
+        <v>该学校还未创建班级</v>
+      </c>
+      <c r="C164" t="str">
+        <v>The school has not created a class yet</v>
+      </c>
+      <c r="D164" t="str">
+        <v>該學校還未創建班級</v>
+      </c>
+      <c r="E164" t="str">
+        <v>لم ينشأ الصف في المدرسة</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>txt_1000164</v>
+      </c>
+      <c r="B165" t="str">
+        <v>立即创建</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Create now</v>
+      </c>
+      <c r="D165" t="str">
+        <v>立即創建</v>
+      </c>
+      <c r="E165" t="str">
+        <v>إنشاء فورا</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>txt_1000165</v>
+      </c>
+      <c r="B166" t="str">
+        <v>已加入</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Added</v>
+      </c>
+      <c r="D166" t="str">
+        <v>已加入</v>
+      </c>
+      <c r="E166" t="str">
+        <v>تم المشاركة</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>txt_1000166</v>
+      </c>
+      <c r="B167" t="str">
+        <v>点击加入</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Click to add</v>
+      </c>
+      <c r="D167" t="str">
+        <v>點擊加入</v>
+      </c>
+      <c r="E167" t="str">
+        <v>انقر المشاركة</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>txt_1000167</v>
+      </c>
+      <c r="B168" t="str">
+        <v>已有学生{count}人</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Already {count} students</v>
+      </c>
+      <c r="D168" t="str">
+        <v>已有學生{count}人</v>
+      </c>
+      <c r="E168" t="str">
+        <v>وجود الطلاب {count}</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>txt_1000168</v>
+      </c>
+      <c r="B169" t="str">
+        <v>您还未设置学校信息</v>
+      </c>
+      <c r="C169" t="str">
+        <v>You have not set the school information yet</v>
+      </c>
+      <c r="D169" t="str">
+        <v>您還未設置學校資訊</v>
+      </c>
+      <c r="E169" t="str">
+        <v>لم تعد بيانات المدرسة</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>txt_1000169</v>
+      </c>
+      <c r="B170" t="str">
+        <v>暂时无法使用该功能</v>
+      </c>
+      <c r="C170" t="str">
+        <v>This function is unavailable for a moment</v>
+      </c>
+      <c r="D170" t="str">
+        <v>暫時無法使用該功能</v>
+      </c>
+      <c r="E170" t="str">
+        <v>لا يمكن استعمال هذه الوظيفة موقتا</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>txt_1000170</v>
+      </c>
+      <c r="B171" t="str">
+        <v>加入班级</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Add to the class</v>
+      </c>
+      <c r="D171" t="str">
+        <v>加入班級</v>
+      </c>
+      <c r="E171" t="str">
+        <v>إضافة الصف</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>txt_1000171</v>
+      </c>
+      <c r="B172" t="str">
+        <v>确定要加入班级？</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Confirm to add to this class?</v>
+      </c>
+      <c r="D172" t="str">
+        <v>確定要加入班級？</v>
+      </c>
+      <c r="E172" t="str">
+        <v>هل توافق على المشاركة في الصف؟</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>txt_1000172</v>
+      </c>
+      <c r="B173" t="str">
+        <v>该班级尚未录入学生信息</v>
+      </c>
+      <c r="C173" t="str">
+        <v>The class has not entered the information of students</v>
+      </c>
+      <c r="D173" t="str">
+        <v>該班級尚未錄入學生資訊</v>
+      </c>
+      <c r="E173" t="str">
+        <v>لم يدخل بيانات الأستاذ لهذا الصف</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>txt_1000173</v>
+      </c>
+      <c r="B174" t="str">
+        <v>该班级尚未录入老师信息</v>
+      </c>
+      <c r="C174" t="str">
+        <v>The class has not entered the information of teachers</v>
+      </c>
+      <c r="D174" t="str">
+        <v>該班級尚未錄入老師資訊</v>
+      </c>
+      <c r="E174" t="str">
+        <v>لم يدخل بيانات الأستاذ لهذا الصف</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>txt_1000174</v>
+      </c>
+      <c r="B175" t="str">
+        <v>账号</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Account</v>
+      </c>
+      <c r="D175" t="str">
+        <v>帳號</v>
+      </c>
+      <c r="E175" t="str">
+        <v>رقم الحساب</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>txt_1000175</v>
+      </c>
+      <c r="B176" t="str">
+        <v>学科</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="D176" t="str">
+        <v>學科</v>
+      </c>
+      <c r="E176" t="str">
+        <v>المادة العلمية</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>txt_1000176</v>
+      </c>
+      <c r="B177" t="str">
+        <v>手机</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="D177" t="str">
+        <v>手機</v>
+      </c>
+      <c r="E177" t="str">
+        <v>الجوال</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>txt_1000178</v>
+      </c>
+      <c r="B178" t="str">
+        <v>老师账号</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Teacher account</v>
+      </c>
+      <c r="D178" t="str">
+        <v>老師賬號</v>
+      </c>
+      <c r="E178" t="str">
+        <v>حساب المعلم</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>txt_1000179</v>
+      </c>
+      <c r="B179" t="str">
+        <v>请输入老师的帐号</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Please enter the teacher's account</v>
+      </c>
+      <c r="D179" t="str">
+        <v>請輸入老師的帳號</v>
+      </c>
+      <c r="E179" t="str">
+        <v>الرجاء إدخال حساب المعلم</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>txt_1000180</v>
+      </c>
+      <c r="B180" t="str">
+        <v>姓名</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D180" t="str">
+        <v>姓名</v>
+      </c>
+      <c r="E180" t="str">
+        <v>الاسم الكامل</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>txt_1000181</v>
+      </c>
+      <c r="B181" t="str">
+        <v>编辑老师</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Editing teacher</v>
+      </c>
+      <c r="D181" t="str">
+        <v>編輯老師</v>
+      </c>
+      <c r="E181" t="str">
+        <v>تحرير المعلمين</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>txt_1000182</v>
+      </c>
+      <c r="B182" t="str">
+        <v>移除老师</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Remove teacher</v>
+      </c>
+      <c r="D182" t="str">
+        <v>移除老師</v>
+      </c>
+      <c r="E182" t="str">
+        <v>حذف المعلم</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>txt_1000183</v>
+      </c>
+      <c r="B183" t="str">
+        <v>确定要将该老师移出班级？</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Be sure to move the teacher out of class？</v>
+      </c>
+      <c r="D183" t="str">
+        <v>確定要將該老師移出班級？</v>
+      </c>
+      <c r="E183" t="str">
+        <v>يجب أن تأخذ المعلم من الفصل</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>txt_1000184</v>
+      </c>
+      <c r="B184" t="str">
+        <v>确定转让</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Confirm transfer</v>
+      </c>
+      <c r="D184" t="str">
+        <v>確定轉讓</v>
+      </c>
+      <c r="E184" t="str">
+        <v>هل أنت متأكد أنك تريد نقل المعلمين من الفصول الدراسية ؟</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>txt_1000185</v>
+      </c>
+      <c r="B185" t="str">
+        <v>输入组名...</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Enter the group name...</v>
+      </c>
+      <c r="D185" t="str">
+        <v>輸入組名...</v>
+      </c>
+      <c r="E185" t="str">
+        <v>أدخل اسم المجموعة</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>txt_1000186</v>
+      </c>
+      <c r="B186" t="str">
+        <v>已退出组长轮值模式</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Has left the leader rotation mode</v>
+      </c>
+      <c r="D186" t="str">
+        <v>已退出組長輪值模式</v>
+      </c>
+      <c r="E186" t="str">
+        <v>ترك يؤدي وضع التناوب</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>txt_1000187</v>
+      </c>
+      <c r="B187" t="str">
+        <v>组长将在每周一自动轮换</v>
+      </c>
+      <c r="C187" t="str">
+        <v>The leader will rotate automatically every Monday</v>
+      </c>
+      <c r="D187" t="str">
+        <v>組長將在每周壹自動輪換</v>
+      </c>
+      <c r="E187" t="str">
+        <v>يؤدي التناوب التلقائي الاثنين</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>txt_1000188</v>
+      </c>
+      <c r="B188" t="str">
+        <v>组长将在每月1号自动轮换</v>
+      </c>
+      <c r="C188" t="str">
+        <v>The leader will rotate automatically on the 1st of each month</v>
+      </c>
+      <c r="D188" t="str">
+        <v>組長將在每月1號自動輪換</v>
+      </c>
+      <c r="E188" t="str">
+        <v>قائد الفريق سوف يتحول تلقائيا في اليوم الأول من الشهر</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>txt_1000189</v>
+      </c>
+      <c r="B189" t="str">
+        <v>当前没有组员</v>
+      </c>
+      <c r="C189" t="str">
+        <v>There are currently no members</v>
+      </c>
+      <c r="D189" t="str">
+        <v>當前沒有組員</v>
+      </c>
+      <c r="E189" t="str">
+        <v>لا يوجد عضو حاليا</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>txt_1000190</v>
+      </c>
+      <c r="B190" t="str">
+        <v>修改失败</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Fail to edit</v>
+      </c>
+      <c r="D190" t="str">
+        <v>修改失敗</v>
+      </c>
+      <c r="E190" t="str">
+        <v>فشل تحرير</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>txt_1000191</v>
+      </c>
+      <c r="B191" t="str">
+        <v>第一组</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Team 1</v>
+      </c>
+      <c r="D191" t="str">
+        <v>第一組</v>
+      </c>
+      <c r="E191" t="str">
+        <v>المجموعة الأولى</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>txt_1000192</v>
+      </c>
+      <c r="B192" t="str">
+        <v>第二组</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Team 2</v>
+      </c>
+      <c r="D192" t="str">
+        <v>第二組</v>
+      </c>
+      <c r="E192" t="str">
+        <v>المجموعة الثانية</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>txt_1000193</v>
+      </c>
+      <c r="B193" t="str">
+        <v>第三组</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Team 3</v>
+      </c>
+      <c r="D193" t="str">
+        <v>第三組</v>
+      </c>
+      <c r="E193" t="str">
+        <v>المجموعة الثالثة</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>txt_1000194</v>
+      </c>
+      <c r="B194" t="str">
+        <v>任命组长</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Appointed leader</v>
+      </c>
+      <c r="D194" t="str">
+        <v>任命組長</v>
+      </c>
+      <c r="E194" t="str">
+        <v>تعيين قائد الفريق</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>txt_1000195</v>
+      </c>
+      <c r="B195" t="str">
+        <v>取消组长</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Cancel leader</v>
+      </c>
+      <c r="D195" t="str">
+        <v>取消組長</v>
+      </c>
+      <c r="E195" t="str">
+        <v>إلغاء قائد الفريق</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>txt_1000196</v>
+      </c>
+      <c r="B196" t="str">
+        <v>一年级</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Grade 1</v>
+      </c>
+      <c r="D196" t="str">
+        <v>壹年級</v>
+      </c>
+      <c r="E196" t="str">
+        <v>السنة الأولى</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>txt_1000197</v>
+      </c>
+      <c r="B197" t="str">
+        <v>二年级</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Grade 2</v>
+      </c>
+      <c r="D197" t="str">
+        <v>二年級</v>
+      </c>
+      <c r="E197" t="str">
+        <v>السنة الثانية</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>txt_1000198</v>
+      </c>
+      <c r="B198" t="str">
+        <v>三年级</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Grade 3</v>
+      </c>
+      <c r="D198" t="str">
+        <v>三年級</v>
+      </c>
+      <c r="E198" t="str">
+        <v>السنة الثانية</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>txt_1000199</v>
+      </c>
+      <c r="B199" t="str">
+        <v>四年级</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Grade 4</v>
+      </c>
+      <c r="D199" t="str">
+        <v>四年級</v>
+      </c>
+      <c r="E199" t="str">
+        <v>الصف الرابع</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>txt_1000200</v>
+      </c>
+      <c r="B200" t="str">
+        <v>五年级</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Grade 5</v>
+      </c>
+      <c r="D200" t="str">
+        <v>五年級</v>
+      </c>
+      <c r="E200" t="str">
+        <v>الصف الخامس</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>txt_1000201</v>
+      </c>
+      <c r="B201" t="str">
+        <v>六年级</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Grade 6</v>
+      </c>
+      <c r="D201" t="str">
+        <v>六年級</v>
+      </c>
+      <c r="E201" t="str">
+        <v>الصف السادس</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>txt_1000202</v>
+      </c>
+      <c r="B202" t="str">
+        <v>七年级</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Grade 7</v>
+      </c>
+      <c r="D202" t="str">
+        <v>七年級</v>
+      </c>
+      <c r="E202" t="str">
+        <v>الصف السابع</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>txt_1000203</v>
+      </c>
+      <c r="B203" t="str">
+        <v>八年级</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Grade 8</v>
+      </c>
+      <c r="D203" t="str">
+        <v>八年級</v>
+      </c>
+      <c r="E203" t="str">
+        <v>الصف الثامن</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>txt_1000204</v>
+      </c>
+      <c r="B204" t="str">
+        <v>九年级</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Grade 9</v>
+      </c>
+      <c r="D204" t="str">
+        <v>九年級</v>
+      </c>
+      <c r="E204" t="str">
+        <v>الصف التاسع</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>txt_1000205</v>
+      </c>
+      <c r="B205" t="str">
+        <v>六年级(五四制)</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Grade 6(May Fourth system)</v>
+      </c>
+      <c r="D205" t="str">
+        <v>六年級(五四制)</v>
+      </c>
+      <c r="E205" t="str">
+        <v>الصف السادس ، الصف الرابع</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>txt_1000206</v>
+      </c>
+      <c r="B206" t="str">
+        <v>高一</v>
+      </c>
+      <c r="C206" t="str">
+        <v>1st year of high school</v>
+      </c>
+      <c r="D206" t="str">
+        <v>高一</v>
+      </c>
+      <c r="E206" t="str">
+        <v>هاي ون</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>txt_1000207</v>
+      </c>
+      <c r="B207" t="str">
+        <v>高二</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2nd year of high school</v>
+      </c>
+      <c r="D207" t="str">
+        <v>高二</v>
+      </c>
+      <c r="E207" t="str">
+        <v>أعلى اثنين</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>txt_1000208</v>
+      </c>
+      <c r="B208" t="str">
+        <v>高三</v>
+      </c>
+      <c r="C208" t="str">
+        <v>3rd year of high school</v>
+      </c>
+      <c r="D208" t="str">
+        <v>高三</v>
+      </c>
+      <c r="E208" t="str">
+        <v>أعلى ثلاثة</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>txt_1000209</v>
+      </c>
+      <c r="B209" t="str">
+        <v>1班</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Classroom 1</v>
+      </c>
+      <c r="D209" t="str">
+        <v>1班</v>
+      </c>
+      <c r="E209" t="str">
+        <v>1كلاس</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>txt_1000210</v>
+      </c>
+      <c r="B210" t="str">
+        <v>2班</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Classroom 2</v>
+      </c>
+      <c r="D210" t="str">
+        <v>2班</v>
+      </c>
+      <c r="E210" t="str">
+        <v>2كلاس</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>txt_1000211</v>
+      </c>
+      <c r="B211" t="str">
+        <v>3班</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Classroom 3</v>
+      </c>
+      <c r="D211" t="str">
+        <v>3班</v>
+      </c>
+      <c r="E211" t="str">
+        <v>3كلاس</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>txt_1000212</v>
+      </c>
+      <c r="B212" t="str">
+        <v>4班</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Classroom 4</v>
+      </c>
+      <c r="D212" t="str">
+        <v>4班</v>
+      </c>
+      <c r="E212" t="str">
+        <v>4كلاس</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>txt_1000213</v>
+      </c>
+      <c r="B213" t="str">
+        <v>5班</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Classroom 5</v>
+      </c>
+      <c r="D213" t="str">
+        <v>5班</v>
+      </c>
+      <c r="E213" t="str">
+        <v>5كلاس</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>txt_1000214</v>
+      </c>
+      <c r="B214" t="str">
+        <v>6班</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Classroom 6</v>
+      </c>
+      <c r="D214" t="str">
+        <v>6班</v>
+      </c>
+      <c r="E214" t="str">
+        <v>6كلاس</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>txt_1000215</v>
+      </c>
+      <c r="B215" t="str">
+        <v>7班</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Classroom 7</v>
+      </c>
+      <c r="D215" t="str">
+        <v>7班</v>
+      </c>
+      <c r="E215" t="str">
+        <v>7كلاس</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>txt_1000216</v>
+      </c>
+      <c r="B216" t="str">
+        <v>8班</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Classroom 8</v>
+      </c>
+      <c r="D216" t="str">
+        <v>8班</v>
+      </c>
+      <c r="E216" t="str">
+        <v>8كلاس</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>txt_1000217</v>
+      </c>
+      <c r="B217" t="str">
+        <v>9班</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Classroom 9</v>
+      </c>
+      <c r="D217" t="str">
+        <v>9班</v>
+      </c>
+      <c r="E217" t="str">
+        <v>9كلاس</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>txt_1000218</v>
+      </c>
+      <c r="B218" t="str">
+        <v>10班</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Classroom 10</v>
+      </c>
+      <c r="D218" t="str">
+        <v>10班</v>
+      </c>
+      <c r="E218" t="str">
+        <v>10كلاس</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>txt_1000219</v>
+      </c>
+      <c r="B219" t="str">
+        <v>11班</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Classroom 11</v>
+      </c>
+      <c r="D219" t="str">
+        <v>11班</v>
+      </c>
+      <c r="E219" t="str">
+        <v>11كلاس</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>txt_1000220</v>
+      </c>
+      <c r="B220" t="str">
+        <v>12班</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Classroom 12</v>
+      </c>
+      <c r="D220" t="str">
+        <v>12班</v>
+      </c>
+      <c r="E220" t="str">
+        <v>12كلاس</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>txt_1000221</v>
+      </c>
+      <c r="B221" t="str">
+        <v>13班</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Classroom 13</v>
+      </c>
+      <c r="D221" t="str">
+        <v>13班</v>
+      </c>
+      <c r="E221" t="str">
+        <v>13كلاس</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>txt_1000222</v>
+      </c>
+      <c r="B222" t="str">
+        <v>14班</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Classroom 14</v>
+      </c>
+      <c r="D222" t="str">
+        <v>14班</v>
+      </c>
+      <c r="E222" t="str">
+        <v>14كلاس</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>txt_1000223</v>
+      </c>
+      <c r="B223" t="str">
+        <v>15班</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Classroom 15</v>
+      </c>
+      <c r="D223" t="str">
+        <v>15班</v>
+      </c>
+      <c r="E223" t="str">
+        <v>15كلاس</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>txt_1000224</v>
+      </c>
+      <c r="B224" t="str">
+        <v>16班</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Classroom 16</v>
+      </c>
+      <c r="D224" t="str">
+        <v>16班</v>
+      </c>
+      <c r="E224" t="str">
+        <v>16كلاس</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>txt_1000225</v>
+      </c>
+      <c r="B225" t="str">
+        <v>17班</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Classroom 17</v>
+      </c>
+      <c r="D225" t="str">
+        <v>17班</v>
+      </c>
+      <c r="E225" t="str">
+        <v>17كلاس</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>txt_1000226</v>
+      </c>
+      <c r="B226" t="str">
+        <v>18班</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Classroom 18</v>
+      </c>
+      <c r="D226" t="str">
+        <v>18班</v>
+      </c>
+      <c r="E226" t="str">
+        <v>18كلاس</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>txt_1000227</v>
+      </c>
+      <c r="B227" t="str">
+        <v>19班</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Classroom 19</v>
+      </c>
+      <c r="D227" t="str">
+        <v>19班</v>
+      </c>
+      <c r="E227" t="str">
+        <v>19كلاس</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>txt_1000228</v>
+      </c>
+      <c r="B228" t="str">
+        <v>20班</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Classroom 20</v>
+      </c>
+      <c r="D228" t="str">
+        <v>20班</v>
+      </c>
+      <c r="E228" t="str">
+        <v>20كلاس</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>txt_1000229</v>
+      </c>
+      <c r="B229" t="str">
+        <v>当前网络不可用，请检查网络</v>
+      </c>
+      <c r="C229" t="str">
+        <v>The current network is not available, please check the network</v>
+      </c>
+      <c r="D229" t="str">
+        <v>當前網絡不可用，請檢查網絡</v>
+      </c>
+      <c r="E229" t="str">
+        <v>الشبكة الحالية غير متوفرة ، يرجى التحقق من الشبكة</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>txt_1000230</v>
+      </c>
+      <c r="B230" t="str">
+        <v>排序</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Sort</v>
+      </c>
+      <c r="D230" t="str">
+        <v>排序</v>
+      </c>
+      <c r="E230" t="str">
+        <v>فرز</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>txt_1000231</v>
+      </c>
+      <c r="B231" t="str">
+        <v>按座位号排序</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Sort by seat number</v>
+      </c>
+      <c r="D231" t="str">
+        <v>按座位號排序</v>
+      </c>
+      <c r="E231" t="str">
+        <v>فرز حسب رقم المقعد</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>txt_1000232</v>
+      </c>
+      <c r="B232" t="str">
+        <v>按姓名首字母排序</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Sort by the first letter of name</v>
+      </c>
+      <c r="D232" t="str">
+        <v>按姓名首字母排序</v>
+      </c>
+      <c r="E232" t="str">
+        <v>فرز حسب الاسم الأول</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>txt_1000233</v>
+      </c>
+      <c r="B233" t="str">
+        <v>请选择账号</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Please select account</v>
+      </c>
+      <c r="D233" t="str">
+        <v>請選擇賬號</v>
+      </c>
+      <c r="E233" t="str">
+        <v>يرجى اختيار حساب</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>txt_1000234</v>
+      </c>
+      <c r="B234" t="str">
+        <v>幼儿园</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Kindergarten</v>
+      </c>
+      <c r="D234" t="str">
+        <v>幼儿園</v>
+      </c>
+      <c r="E234" t="str">
+        <v>روضة أطفال</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>txt_1000235</v>
+      </c>
+      <c r="B235" t="str">
+        <v>幼小衔接班</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Preclass for 1st grade</v>
+      </c>
+      <c r="D235" t="str">
+        <v>幼小銜接班</v>
+      </c>
+      <c r="E235" t="str">
+        <v>روضة أطفال - الفصل الدراسي الانتقالي للمرحلة الابتدائية</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>txt_1000236</v>
+      </c>
+      <c r="B236" t="str">
+        <v>小班</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Preschool</v>
+      </c>
+      <c r="D236" t="str">
+        <v>小班</v>
+      </c>
+      <c r="E236" t="str">
+        <v>الفصل الدراسي السفلي</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>txt_1000237</v>
+      </c>
+      <c r="B237" t="str">
+        <v>中班</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Prekindergarten</v>
+      </c>
+      <c r="D237" t="str">
+        <v>中班</v>
+      </c>
+      <c r="E237" t="str">
+        <v>الفصل الدراسي المتوسط</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>txt_1000238</v>
+      </c>
+      <c r="B238" t="str">
+        <v>大班</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Kindergarten</v>
+      </c>
+      <c r="D238" t="str">
+        <v>大班</v>
+      </c>
+      <c r="E238" t="str">
+        <v>الفصل الدراسي العلوي</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>txt_1000239</v>
+      </c>
+      <c r="B239" t="str">
+        <v>(学生可用该账号登录，默认密码Abc123456)</v>
+      </c>
+      <c r="C239" t="str">
+        <v>(Students can use this account to log in, and the default password is Abc123456)</v>
+      </c>
+      <c r="D239" t="str">
+        <v>(學生可用該帳號登入，默認密碼Abc123456)</v>
+      </c>
+      <c r="E239" t="str">
+        <v>(يمكن للطلاب استخدام هذا الحساب لتسجيل الدخول إلى ، كلمة المرور الافتراضية هي Abc123456)</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>txt_1000240</v>
+      </c>
+      <c r="B240" t="str">
+        <v>该班级尚未录入学生信息，快添加学生到班级里吧</v>
+      </c>
+      <c r="C240" t="str">
+        <v>No student info in the class, add now</v>
+      </c>
+      <c r="D240" t="str">
+        <v>該班級尚未錄入學生資訊，快添加學生到班級裏吧</v>
+      </c>
+      <c r="E240" t="str">
+        <v>لم يدخل  الفصل الدراسي معلومات الطالب بعد ، قم فقط بإضافة الطلاب إلى الفصل الدراسي.</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>txt_1000241</v>
+      </c>
+      <c r="B241" t="str">
+        <v>允许加入</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Allow to join</v>
+      </c>
+      <c r="D241" t="str">
+        <v>允許加入</v>
+      </c>
+      <c r="E241" t="str">
+        <v>يسمح للانضمام إلى</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>txt_1000242</v>
+      </c>
+      <c r="B242" t="str">
+        <v>允许用户自由加入班级</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Allow users to join the class freely</v>
+      </c>
+      <c r="D242" t="str">
+        <v>允許用戶自由加入班級</v>
+      </c>
+      <c r="E242" t="str">
+        <v>يسمح للمستخدمين بحرية الانضمام إلى فئة</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>txt_1000243</v>
+      </c>
+      <c r="B243" t="str">
+        <v>通过身份验证后加入</v>
+      </c>
+      <c r="C243" t="str">
+        <v>By joining after authentication</v>
+      </c>
+      <c r="D243" t="str">
+        <v>通過身份驗證後加入</v>
+      </c>
+      <c r="E243" t="str">
+        <v>بعد مصادقة</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>txt_1000244</v>
+      </c>
+      <c r="B244" t="str">
+        <v>用户要加入班级必须输入正确的班级管理员真实姓名进行身份验证</v>
+      </c>
+      <c r="C244" t="str">
+        <v>You should provide the real name of class admin for approval</v>
+      </c>
+      <c r="D244" t="str">
+        <v>用戶要加入班級必須輸入正確的班級管理員真實姓名進行身份驗證</v>
+      </c>
+      <c r="E244" t="str">
+        <v>يجب على المستخدم إدخال اسم حقيقي من الدرجة الصحيحة</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>txt_1000245</v>
+      </c>
+      <c r="B245" t="str">
+        <v>通过班级管理员审核后加入</v>
+      </c>
+      <c r="C245" t="str">
+        <v>By the class admin after the audit to join</v>
+      </c>
+      <c r="D245" t="str">
+        <v>通過班級管理員審核後加入</v>
+      </c>
+      <c r="E245" t="str">
+        <v>بعد مراجعة مدير الصف</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>txt_1000246</v>
+      </c>
+      <c r="B246" t="str">
+        <v>用户要加入班级必须先通过班级管理员的审核</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Users to join the class must first pass the class admin's audit</v>
+      </c>
+      <c r="D246" t="str">
+        <v>用戶要加入班級必須先通過班級管理員的審核</v>
+      </c>
+      <c r="E246" t="str">
+        <v>يجب على المستخدمين الانضمام إلى الصف من خلال مراجعة مدير الصف</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>txt_1000247</v>
+      </c>
+      <c r="B247" t="str">
+        <v>禁止加入</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Forbid to join</v>
+      </c>
+      <c r="D247" t="str">
+        <v>禁止加入</v>
+      </c>
+      <c r="E247" t="str">
+        <v>يحظر الانضمام</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>txt_1000248</v>
+      </c>
+      <c r="B248" t="str">
+        <v>只能由班级管理员亲自添加成员</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Members can only be added by the class admin</v>
+      </c>
+      <c r="D248" t="str">
+        <v>只能由班級管理員親自添加成員</v>
+      </c>
+      <c r="E248" t="str">
+        <v>يمكن فقط إضافة أعضاء من قبل مدير الصف شخصيا</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>txt_1000249</v>
+      </c>
+      <c r="B249" t="str">
+        <v>班级码</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Class Code</v>
+      </c>
+      <c r="D249" t="str">
+        <v>班級碼</v>
+      </c>
+      <c r="E249" t="str">
+        <v>رمز الدرجة</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>txt_1000250</v>
+      </c>
+      <c r="B250" t="str">
+        <v>学段</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Phase</v>
+      </c>
+      <c r="D250" t="str">
+        <v>學段</v>
+      </c>
+      <c r="E250" t="str">
+        <v>قسم العلوم</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>txt_1000251</v>
+      </c>
+      <c r="B251" t="str">
+        <v>年级</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Grade</v>
+      </c>
+      <c r="D251" t="str">
+        <v>年級</v>
+      </c>
+      <c r="E251" t="str">
+        <v>الصف</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>txt_1000252</v>
+      </c>
+      <c r="B252" t="str">
+        <v>发送邀请函</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Send a letter of invitation</v>
+      </c>
+      <c r="D252" t="str">
+        <v>發送邀請函</v>
+      </c>
+      <c r="E252" t="str">
+        <v>إرسال دعوة</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>txt_1000253</v>
+      </c>
+      <c r="B253" t="str">
+        <v>所有学生</v>
+      </c>
+      <c r="C253" t="str">
+        <v>All students</v>
+      </c>
+      <c r="D253" t="str">
+        <v>所有學生</v>
+      </c>
+      <c r="E253" t="str">
+        <v>جميع الطلاب</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>txt_1000254</v>
+      </c>
+      <c r="B254" t="str">
+        <v>所有老师</v>
+      </c>
+      <c r="C254" t="str">
+        <v>All teachers</v>
+      </c>
+      <c r="D254" t="str">
+        <v>所有老師</v>
+      </c>
+      <c r="E254" t="str">
+        <v>جميع المعلمين</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>txt_1000255</v>
+      </c>
+      <c r="B255" t="str">
+        <v>设置加入权限</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Set Join Permissions</v>
+      </c>
+      <c r="D255" t="str">
+        <v>設置加入權限</v>
+      </c>
+      <c r="E255" t="str">
+        <v>تعيين أذونات الانضمام</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>txt_1000256</v>
+      </c>
+      <c r="B256" t="str">
+        <v>您还未设置真实姓名</v>
+      </c>
+      <c r="C256" t="str">
+        <v>You have not set your real name</v>
+      </c>
+      <c r="D256" t="str">
+        <v>您還未設置真實姓名</v>
+      </c>
+      <c r="E256" t="str">
+        <v>لم يتم تعيين اسم حقيقي</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>txt_1000257</v>
+      </c>
+      <c r="B257" t="str">
+        <v>images/demo/thirdStudent.xlsx</v>
+      </c>
+      <c r="C257" t="str">
+        <v>images/demo/thirdStudent(en).xls</v>
+      </c>
+      <c r="D257" t="str">
+        <v>images/demo/thirdStudent.xlsx</v>
+      </c>
+      <c r="E257" t="str">
+        <v>images/demo/thirdStudent.xls</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>txt_1000258</v>
+      </c>
+      <c r="B258" t="str">
+        <v>要加入该班级需要通过班级管理员的审核，请耐心等待</v>
+      </c>
+      <c r="C258" t="str">
+        <v>To join the class, please wait patiently</v>
+      </c>
+      <c r="D258" t="str">
+        <v>要加入該班級需要通過班級管理員的稽核，請耐心等待</v>
+      </c>
+      <c r="E258" t="str">
+        <v>الانضمام إلى هذه الفئة تحتاج إلى مراجعة من قبل مدير الصف ، يرجى الانتظار بصبر</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>txt_1000259</v>
+      </c>
+      <c r="B259" t="str">
+        <v>您已成功加入该班级</v>
+      </c>
+      <c r="C259" t="str">
+        <v>You have successfully joined the class</v>
+      </c>
+      <c r="D259" t="str">
+        <v>您已成功加入該班級</v>
+      </c>
+      <c r="E259" t="str">
+        <v>لقد نجحت في الانضمام إلى هذه الفئة</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>txt_1000260</v>
+      </c>
+      <c r="B260" t="str">
+        <v>该班级禁止加入</v>
+      </c>
+      <c r="C260" t="str">
+        <v>The class is not allowed to join</v>
+      </c>
+      <c r="D260" t="str">
+        <v>該班級禁止加入</v>
+      </c>
+      <c r="E260" t="str">
+        <v>فئة يحظر الانضمام</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>txt_1000261</v>
+      </c>
+      <c r="B261" t="str">
+        <v>您已成功退出该班级</v>
+      </c>
+      <c r="C261" t="str">
+        <v>You have successfully quit the class</v>
+      </c>
+      <c r="D261" t="str">
+        <v>您已成功退出該班級</v>
+      </c>
+      <c r="E261" t="str">
+        <v>لقد نجحت في الخروج من هذه الفئة</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>txt_1000262</v>
+      </c>
+      <c r="B262" t="str">
+        <v>该班级禁止退出</v>
+      </c>
+      <c r="C262" t="str">
+        <v>The class is not allowed to quit</v>
+      </c>
+      <c r="D262" t="str">
+        <v>該班級禁止退出</v>
+      </c>
+      <c r="E262" t="str">
+        <v>فئة يحظر الخروج</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>txt_1000263</v>
+      </c>
+      <c r="B263" t="str">
+        <v>清除后将把该分组方案下所有小组解散且数据不可恢复</v>
+      </c>
+      <c r="C263" t="str">
+        <v>After clearing, all groups under the grouping scheme will be dissolved and the data cannot be recovered</v>
+      </c>
+      <c r="D263" t="str">
+        <v>清除後將把該分組方案下所有小組解散且數據不可恢復</v>
+      </c>
+      <c r="E263" t="str">
+        <v>بعد مسح جميع المجموعات في إطار مخطط المجموعة سيتم حل البيانات لن تكون قادرة على استرداد</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>txt_1000264</v>
+      </c>
+      <c r="B264" t="str">
+        <v>学生账号</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Student account</v>
+      </c>
+      <c r="D264" t="str">
+        <v>學生帳號</v>
+      </c>
+      <c r="E264" t="str">
+        <v>حساب الطالب</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>txt_1000265</v>
+      </c>
+      <c r="B265" t="str">
+        <v>添加本校学生</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Add students</v>
+      </c>
+      <c r="D265" t="str">
+        <v>添加本校學生</v>
+      </c>
+      <c r="E265" t="str">
+        <v>إضافة طالب</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>UC_USERNAME_INVALID</v>
+      </c>
+      <c r="B266" t="str">
+        <v>用户名格式不正确,需以字母开头,可包含字母、数字、_，最长20字符</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Username must start with a letter, and can only contain letters, numbers, and underscores. Maximum 20 characters.</v>
+      </c>
+      <c r="D266" t="str">
+        <v>用戶名格式不正確,需以字母開頭,可包含字母、數字、_，最長20字符</v>
+      </c>
+      <c r="E266" t="str">
+        <v>اسم المستخدم هو شكل غير صحيح ، يجب أن تبدأ بحرف ، يمكن أن تحتوي على الحروف والأرقام   أطول حرف 20</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>UC_VIRTUAL_NODE_EXISTED_USER_NAME</v>
+      </c>
+      <c r="B267" t="str">
+        <v>用户名在虚拟组织节点下已存在</v>
+      </c>
+      <c r="C267" t="str">
+        <v>The username does not exist under the virtual organization node.</v>
+      </c>
+      <c r="D267" t="str">
+        <v>用戶名在虛擬組織節點下已存在</v>
+      </c>
+      <c r="E267" t="str">
+        <v>اسم المستخدم موجود بالفعل تحت عقدة منظمة افتراضية</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>SENSITIVR_WORD_EXISTS</v>
+      </c>
+      <c r="B268" t="str">
+        <v>您输入的内容中包含敏感词哦，修改一下吧</v>
+      </c>
+      <c r="C268" t="str">
+        <v>The content you entered contains sensitive words, please modify it.</v>
+      </c>
+      <c r="D268" t="str">
+        <v>您輸入的內容中包含敏感詞哦，修改一下吧</v>
+      </c>
+      <c r="E268" t="str">
+        <v>المحتوى الذي أدخلته يحتوي على كلمات حساسة ، يرجى تعديله</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>accountTips</v>
+      </c>
+      <c r="B269" t="str">
+        <v>学生可以使用自动生成的账号登录作业和课堂，密码默认Abc123456</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Students can use the automatically generated account to log in to assignments and classes, and the default password is Abc123456</v>
+      </c>
+      <c r="D269" t="str">
+        <v>學生可以使用自動生成的賬號登錄作業和課堂，默認密碼Abc123456</v>
+      </c>
+      <c r="E269" t="str">
+        <v>يمكن للطلاب استخدام الحساب تلقائيا تسجيل الدخول إلى العمليات والفصول الدراسية ، كلمة السر الافتراضية abc123456</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>third_account_modal_title</v>
+      </c>
+      <c r="B270" t="str">
+        <v>绑定第三方账号班级数据</v>
+      </c>
+      <c r="C270" t="str">
+        <v/>
+      </c>
+      <c r="D270" t="str">
+        <v/>
+      </c>
+      <c r="E270" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>classes_empty_tips</v>
+      </c>
+      <c r="B271" t="str">
+        <v>创建属于你的第一个班级，创建完成后，即可使用101教育PPT的特色工具</v>
+      </c>
+      <c r="C271" t="str">
+        <v/>
+      </c>
+      <c r="D271" t="str">
+        <v/>
+      </c>
+      <c r="E271" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
         <v>PPT101_CLASS_STUDENT_INFO_CONFLICT</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B272" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C272" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D272" t="str">
         <v>学生信息冲突</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E272" t="str">
         <v>学生信息冲突</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E272"/>
   </ignoredErrors>
 </worksheet>
 </file>